--- a/rider/annual/2016.xlsx
+++ b/rider/annual/2016.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="269">
   <si>
     <t>Weekday</t>
   </si>
@@ -800,6 +800,27 @@
   </si>
   <si>
     <t>12 Sep 2016</t>
+  </si>
+  <si>
+    <t>13 Sep 2016</t>
+  </si>
+  <si>
+    <t>14 Sep 2016</t>
+  </si>
+  <si>
+    <t>15 Sep 2016</t>
+  </si>
+  <si>
+    <t>16 Sep 2016</t>
+  </si>
+  <si>
+    <t>17 Sep 2016</t>
+  </si>
+  <si>
+    <t>18 Sep 2016</t>
+  </si>
+  <si>
+    <t>19 Sep 2016</t>
   </si>
 </sst>
 </file>
@@ -890,9 +911,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$251</c:f>
+              <c:f>Ridership!$B$2:$B$258</c:f>
               <c:strCache>
-                <c:ptCount val="250"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>02 Jan 2016</c:v>
                 </c:pt>
@@ -1642,16 +1663,37 @@
                 </c:pt>
                 <c:pt idx="249">
                   <c:v>12 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>13 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>14 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>15 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>16 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>17 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>18 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>19 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$C$2:$C$251</c:f>
+              <c:f>Ridership!$C$2:$C$258</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="250"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -2277,118 +2319,118 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>166</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>189</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>216</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>169</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>183</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>40</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>145</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>213</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>212</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="218">
                   <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>239</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>100</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>73</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>177</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>170</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>199</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>213</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>200</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>84</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>191</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>192</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>188</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>222</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>190</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>301</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>114</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>202</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>252</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>187</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>208</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>141</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="241">
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>78</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>221</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>248</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>230</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="246">
                   <c:v>216</c:v>
@@ -2397,10 +2439,31 @@
                   <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="248">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="255">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="249">
-                  <c:v>170</c:v>
+                <c:pt idx="256">
+                  <c:v>103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2424,9 +2487,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$251</c:f>
+              <c:f>Ridership!$B$2:$B$258</c:f>
               <c:strCache>
-                <c:ptCount val="250"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>02 Jan 2016</c:v>
                 </c:pt>
@@ -3176,16 +3239,37 @@
                 </c:pt>
                 <c:pt idx="249">
                   <c:v>12 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>13 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>14 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>15 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>16 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>17 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>18 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>19 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$D$2:$D$251</c:f>
+              <c:f>Ridership!$D$2:$D$258</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="250"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>19.13</c:v>
                 </c:pt>
@@ -3811,130 +3895,151 @@
                   <c:v>32.98</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>92.16</c:v>
+                  <c:v>92.47</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>93.96</c:v>
+                  <c:v>93.86</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>100.5</c:v>
+                  <c:v>99.65</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>97.5</c:v>
+                  <c:v>97.69</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>94.36</c:v>
+                  <c:v>94.67</c:v>
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>40.3</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>33.13</c:v>
+                  <c:v>33.19</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>93.36</c:v>
+                  <c:v>93.43</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>96.34</c:v>
+                  <c:v>96.16</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>102.78</c:v>
+                  <c:v>101.71</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>99.65</c:v>
+                  <c:v>99.84</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>97.5</c:v>
+                  <c:v>97.89</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>41.57</c:v>
+                  <c:v>41.6</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>33.96</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>95.22</c:v>
+                  <c:v>95.09</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>97.78</c:v>
+                  <c:v>97.88</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>104.7</c:v>
+                  <c:v>103.58</c:v>
                 </c:pt>
                 <c:pt idx="225">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>100.11</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>35.02</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>96.91</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>99.79</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>105.55</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>103.92</c:v>
+                </c:pt>
+                <c:pt idx="233">
                   <c:v>101.92</c:v>
                 </c:pt>
-                <c:pt idx="226">
-                  <c:v>99.68</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>42.46</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>34.98</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>97.3</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>99.6</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>106.33</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>104.27</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>101.56</c:v>
-                </c:pt>
                 <c:pt idx="234">
-                  <c:v>47.73</c:v>
+                  <c:v>47.88</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>36.56</c:v>
+                  <c:v>36.66</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>99.53</c:v>
+                  <c:v>100.11</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>102.47</c:v>
+                  <c:v>102.36</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>107.88</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>106.27</c:v>
+                  <c:v>105.69</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>102.37</c:v>
+                  <c:v>102.65</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>48.72</c:v>
+                  <c:v>48.86</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>37.37</c:v>
+                  <c:v>37.43</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>104.67</c:v>
+                  <c:v>104.41</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>110.53</c:v>
+                  <c:v>109.81</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>108.6</c:v>
+                  <c:v>108.21</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>104.64</c:v>
+                  <c:v>104.92</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>49.45</c:v>
+                  <c:v>49.59</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>38.1</c:v>
+                  <c:v>38.13</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>101</c:v>
+                  <c:v>102.15</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>107.2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>111.57</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>112.67</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>107.12</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>49.77</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>38.83</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>102.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3958,9 +4063,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$251</c:f>
+              <c:f>Ridership!$B$2:$B$258</c:f>
               <c:strCache>
-                <c:ptCount val="250"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>02 Jan 2016</c:v>
                 </c:pt>
@@ -4710,16 +4815,37 @@
                 </c:pt>
                 <c:pt idx="249">
                   <c:v>12 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>13 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>14 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>15 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>16 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>17 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>18 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>19 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$E$2:$E$251</c:f>
+              <c:f>Ridership!$E$2:$E$258</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="250"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>39.42</c:v>
                 </c:pt>
@@ -5469,6 +5595,27 @@
                 </c:pt>
                 <c:pt idx="249">
                   <c:v>80.43</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>80.59</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>80.75</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>80.91</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>81.07</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>81.23</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>81.4</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>81.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5561,13 +5708,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>274</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5875,7 +6022,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9449,10 +9596,10 @@
         <v>220</v>
       </c>
       <c r="C210">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D210">
-        <v>92.16</v>
+        <v>92.47</v>
       </c>
       <c r="E210">
         <v>73.65</v>
@@ -9466,10 +9613,10 @@
         <v>221</v>
       </c>
       <c r="C211">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D211">
-        <v>93.96</v>
+        <v>93.86</v>
       </c>
       <c r="E211">
         <v>73.81</v>
@@ -9483,10 +9630,10 @@
         <v>222</v>
       </c>
       <c r="C212">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="D212">
-        <v>100.5</v>
+        <v>99.65</v>
       </c>
       <c r="E212">
         <v>73.97</v>
@@ -9500,10 +9647,10 @@
         <v>223</v>
       </c>
       <c r="C213">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D213">
-        <v>97.5</v>
+        <v>97.69</v>
       </c>
       <c r="E213">
         <v>74.13</v>
@@ -9517,10 +9664,10 @@
         <v>224</v>
       </c>
       <c r="C214">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D214">
-        <v>94.36</v>
+        <v>94.67</v>
       </c>
       <c r="E214">
         <v>74.29</v>
@@ -9551,10 +9698,10 @@
         <v>226</v>
       </c>
       <c r="C216">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D216">
-        <v>33.13</v>
+        <v>33.19</v>
       </c>
       <c r="E216">
         <v>74.62</v>
@@ -9568,10 +9715,10 @@
         <v>227</v>
       </c>
       <c r="C217">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D217">
-        <v>93.36</v>
+        <v>93.43</v>
       </c>
       <c r="E217">
         <v>74.78</v>
@@ -9585,10 +9732,10 @@
         <v>228</v>
       </c>
       <c r="C218">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D218">
-        <v>96.34</v>
+        <v>96.16</v>
       </c>
       <c r="E218">
         <v>74.94</v>
@@ -9602,10 +9749,10 @@
         <v>229</v>
       </c>
       <c r="C219">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D219">
-        <v>102.78</v>
+        <v>101.71</v>
       </c>
       <c r="E219">
         <v>75.1</v>
@@ -9622,7 +9769,7 @@
         <v>203</v>
       </c>
       <c r="D220">
-        <v>99.65</v>
+        <v>99.84</v>
       </c>
       <c r="E220">
         <v>75.26</v>
@@ -9636,10 +9783,10 @@
         <v>231</v>
       </c>
       <c r="C221">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D221">
-        <v>97.5</v>
+        <v>97.89</v>
       </c>
       <c r="E221">
         <v>75.42</v>
@@ -9653,10 +9800,10 @@
         <v>232</v>
       </c>
       <c r="C222">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D222">
-        <v>41.57</v>
+        <v>41.6</v>
       </c>
       <c r="E222">
         <v>75.58</v>
@@ -9670,10 +9817,10 @@
         <v>233</v>
       </c>
       <c r="C223">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D223">
-        <v>33.96</v>
+        <v>34</v>
       </c>
       <c r="E223">
         <v>75.75</v>
@@ -9687,10 +9834,10 @@
         <v>234</v>
       </c>
       <c r="C224">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D224">
-        <v>95.22</v>
+        <v>95.09</v>
       </c>
       <c r="E224">
         <v>75.91</v>
@@ -9704,10 +9851,10 @@
         <v>235</v>
       </c>
       <c r="C225">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D225">
-        <v>97.78</v>
+        <v>97.88</v>
       </c>
       <c r="E225">
         <v>76.07</v>
@@ -9721,10 +9868,10 @@
         <v>236</v>
       </c>
       <c r="C226">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D226">
-        <v>104.7</v>
+        <v>103.58</v>
       </c>
       <c r="E226">
         <v>76.23</v>
@@ -9738,10 +9885,10 @@
         <v>237</v>
       </c>
       <c r="C227">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D227">
-        <v>101.92</v>
+        <v>102</v>
       </c>
       <c r="E227">
         <v>76.39</v>
@@ -9755,10 +9902,10 @@
         <v>238</v>
       </c>
       <c r="C228">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D228">
-        <v>99.68</v>
+        <v>100.11</v>
       </c>
       <c r="E228">
         <v>76.55</v>
@@ -9772,10 +9919,10 @@
         <v>239</v>
       </c>
       <c r="C229">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D229">
-        <v>42.46</v>
+        <v>42.5</v>
       </c>
       <c r="E229">
         <v>76.71</v>
@@ -9792,7 +9939,7 @@
         <v>84</v>
       </c>
       <c r="D230">
-        <v>34.98</v>
+        <v>35.02</v>
       </c>
       <c r="E230">
         <v>76.88</v>
@@ -9806,10 +9953,10 @@
         <v>241</v>
       </c>
       <c r="C231">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D231">
-        <v>97.3</v>
+        <v>96.91</v>
       </c>
       <c r="E231">
         <v>77.04</v>
@@ -9823,10 +9970,10 @@
         <v>242</v>
       </c>
       <c r="C232">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D232">
-        <v>99.6</v>
+        <v>99.79</v>
       </c>
       <c r="E232">
         <v>77.2</v>
@@ -9840,10 +9987,10 @@
         <v>243</v>
       </c>
       <c r="C233">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="D233">
-        <v>106.33</v>
+        <v>105.55</v>
       </c>
       <c r="E233">
         <v>77.36</v>
@@ -9857,10 +10004,10 @@
         <v>244</v>
       </c>
       <c r="C234">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="D234">
-        <v>104.27</v>
+        <v>103.92</v>
       </c>
       <c r="E234">
         <v>77.52</v>
@@ -9874,10 +10021,10 @@
         <v>245</v>
       </c>
       <c r="C235">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D235">
-        <v>101.56</v>
+        <v>101.92</v>
       </c>
       <c r="E235">
         <v>77.68</v>
@@ -9891,10 +10038,10 @@
         <v>246</v>
       </c>
       <c r="C236">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D236">
-        <v>47.73</v>
+        <v>47.88</v>
       </c>
       <c r="E236">
         <v>77.84</v>
@@ -9908,10 +10055,10 @@
         <v>247</v>
       </c>
       <c r="C237">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D237">
-        <v>36.56</v>
+        <v>36.66</v>
       </c>
       <c r="E237">
         <v>78.01</v>
@@ -9925,10 +10072,10 @@
         <v>248</v>
       </c>
       <c r="C238">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="D238">
-        <v>99.53</v>
+        <v>100.11</v>
       </c>
       <c r="E238">
         <v>78.17</v>
@@ -9942,10 +10089,10 @@
         <v>249</v>
       </c>
       <c r="C239">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D239">
-        <v>102.47</v>
+        <v>102.36</v>
       </c>
       <c r="E239">
         <v>78.33</v>
@@ -9959,10 +10106,10 @@
         <v>250</v>
       </c>
       <c r="C240">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D240">
-        <v>107.88</v>
+        <v>107</v>
       </c>
       <c r="E240">
         <v>78.49</v>
@@ -9976,10 +10123,10 @@
         <v>251</v>
       </c>
       <c r="C241">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D241">
-        <v>106.27</v>
+        <v>105.69</v>
       </c>
       <c r="E241">
         <v>78.65</v>
@@ -9993,10 +10140,10 @@
         <v>252</v>
       </c>
       <c r="C242">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D242">
-        <v>102.37</v>
+        <v>102.65</v>
       </c>
       <c r="E242">
         <v>78.81</v>
@@ -10013,7 +10160,7 @@
         <v>97</v>
       </c>
       <c r="D243">
-        <v>48.72</v>
+        <v>48.86</v>
       </c>
       <c r="E243">
         <v>78.97</v>
@@ -10027,10 +10174,10 @@
         <v>254</v>
       </c>
       <c r="C244">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D244">
-        <v>37.37</v>
+        <v>37.43</v>
       </c>
       <c r="E244">
         <v>79.14</v>
@@ -10044,10 +10191,10 @@
         <v>255</v>
       </c>
       <c r="C245">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D245">
-        <v>104.67</v>
+        <v>104.41</v>
       </c>
       <c r="E245">
         <v>79.46</v>
@@ -10061,10 +10208,10 @@
         <v>256</v>
       </c>
       <c r="C246">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D246">
-        <v>110.53</v>
+        <v>109.81</v>
       </c>
       <c r="E246">
         <v>79.62</v>
@@ -10078,10 +10225,10 @@
         <v>257</v>
       </c>
       <c r="C247">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D247">
-        <v>108.6</v>
+        <v>108.21</v>
       </c>
       <c r="E247">
         <v>79.78</v>
@@ -10098,7 +10245,7 @@
         <v>216</v>
       </c>
       <c r="D248">
-        <v>104.64</v>
+        <v>104.92</v>
       </c>
       <c r="E248">
         <v>79.94</v>
@@ -10115,7 +10262,7 @@
         <v>86</v>
       </c>
       <c r="D249">
-        <v>49.45</v>
+        <v>49.59</v>
       </c>
       <c r="E249">
         <v>80.1</v>
@@ -10129,10 +10276,10 @@
         <v>260</v>
       </c>
       <c r="C250">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D250">
-        <v>38.1</v>
+        <v>38.13</v>
       </c>
       <c r="E250">
         <v>80.27</v>
@@ -10146,13 +10293,132 @@
         <v>261</v>
       </c>
       <c r="C251">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="D251">
-        <v>101</v>
+        <v>102.15</v>
       </c>
       <c r="E251">
         <v>80.43</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>11</v>
+      </c>
+      <c r="B252" t="s">
+        <v>262</v>
+      </c>
+      <c r="C252">
+        <v>258</v>
+      </c>
+      <c r="D252">
+        <v>107.2</v>
+      </c>
+      <c r="E252">
+        <v>80.59</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>13</v>
+      </c>
+      <c r="B253" t="s">
+        <v>263</v>
+      </c>
+      <c r="C253">
+        <v>205</v>
+      </c>
+      <c r="D253">
+        <v>111.57</v>
+      </c>
+      <c r="E253">
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>15</v>
+      </c>
+      <c r="B254" t="s">
+        <v>264</v>
+      </c>
+      <c r="C254">
+        <v>349</v>
+      </c>
+      <c r="D254">
+        <v>112.67</v>
+      </c>
+      <c r="E254">
+        <v>80.91</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>17</v>
+      </c>
+      <c r="B255" t="s">
+        <v>265</v>
+      </c>
+      <c r="C255">
+        <v>217</v>
+      </c>
+      <c r="D255">
+        <v>107.12</v>
+      </c>
+      <c r="E255">
+        <v>81.07</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>5</v>
+      </c>
+      <c r="B256" t="s">
+        <v>266</v>
+      </c>
+      <c r="C256">
+        <v>59</v>
+      </c>
+      <c r="D256">
+        <v>49.77</v>
+      </c>
+      <c r="E256">
+        <v>81.23</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>7</v>
+      </c>
+      <c r="B257" t="s">
+        <v>267</v>
+      </c>
+      <c r="C257">
+        <v>75</v>
+      </c>
+      <c r="D257">
+        <v>38.83</v>
+      </c>
+      <c r="E257">
+        <v>81.4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>9</v>
+      </c>
+      <c r="B258" t="s">
+        <v>268</v>
+      </c>
+      <c r="C258">
+        <v>103</v>
+      </c>
+      <c r="D258">
+        <v>102.16</v>
+      </c>
+      <c r="E258">
+        <v>81.56</v>
       </c>
     </row>
   </sheetData>

--- a/rider/annual/2016.xlsx
+++ b/rider/annual/2016.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="273">
   <si>
     <t>Weekday</t>
   </si>
@@ -821,6 +821,18 @@
   </si>
   <si>
     <t>19 Sep 2016</t>
+  </si>
+  <si>
+    <t>20 Sep 2016</t>
+  </si>
+  <si>
+    <t>21 Sep 2016</t>
+  </si>
+  <si>
+    <t>22 Sep 2016</t>
+  </si>
+  <si>
+    <t>23 Sep 2016</t>
   </si>
 </sst>
 </file>
@@ -911,9 +923,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$258</c:f>
+              <c:f>Ridership!$B$2:$B$262</c:f>
               <c:strCache>
-                <c:ptCount val="257"/>
+                <c:ptCount val="261"/>
                 <c:pt idx="0">
                   <c:v>02 Jan 2016</c:v>
                 </c:pt>
@@ -1684,16 +1696,28 @@
                 </c:pt>
                 <c:pt idx="256">
                   <c:v>19 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>20 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>21 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>22 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>23 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$C$2:$C$258</c:f>
+              <c:f>Ridership!$C$2:$C$262</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="257"/>
+                <c:ptCount val="261"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -2319,151 +2343,163 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="208">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="212">
                   <c:v>179</c:v>
                 </c:pt>
-                <c:pt idx="209">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>197</c:v>
-                </c:pt>
                 <c:pt idx="213">
-                  <c:v>66</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>43</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>135</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>209</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>201</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>203</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>243</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="220">
                   <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>72</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>168</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>184</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>195</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>208</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>202</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>85</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>179</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>197</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>204</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>200</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>187</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>306</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>117</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>247</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>236</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>181</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>196</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>138</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="241">
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>76</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>213</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>256</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>239</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>216</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>86</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="248">
                   <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>198</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>258</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>205</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>349</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>217</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>59</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="255">
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>103</c:v>
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2487,9 +2523,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$258</c:f>
+              <c:f>Ridership!$B$2:$B$262</c:f>
               <c:strCache>
-                <c:ptCount val="257"/>
+                <c:ptCount val="261"/>
                 <c:pt idx="0">
                   <c:v>02 Jan 2016</c:v>
                 </c:pt>
@@ -3260,16 +3296,28 @@
                 </c:pt>
                 <c:pt idx="256">
                   <c:v>19 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>20 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>21 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>22 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>23 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$D$2:$D$258</c:f>
+              <c:f>Ridership!$D$2:$D$262</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="257"/>
+                <c:ptCount val="261"/>
                 <c:pt idx="0">
                   <c:v>19.13</c:v>
                 </c:pt>
@@ -3895,151 +3943,163 @@
                   <c:v>32.98</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>92.47</c:v>
+                  <c:v>92.6</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>93.86</c:v>
+                  <c:v>93.8</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>99.65</c:v>
+                  <c:v>100.02</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>97.69</c:v>
+                  <c:v>97.58</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>94.67</c:v>
+                  <c:v>94.27</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>40.3</c:v>
+                  <c:v>40.37</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>33.19</c:v>
+                  <c:v>33.17</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>93.43</c:v>
+                  <c:v>93.7</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>96.16</c:v>
+                  <c:v>96.18</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>101.71</c:v>
+                  <c:v>101.9</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>99.84</c:v>
+                  <c:v>99.9</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>97.89</c:v>
+                  <c:v>97.72</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>41.6</c:v>
+                  <c:v>41.66</c:v>
                 </c:pt>
                 <c:pt idx="221">
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>95.09</c:v>
+                  <c:v>95.58</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>97.88</c:v>
+                  <c:v>97.82</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>103.58</c:v>
+                  <c:v>103.84</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>102</c:v>
+                  <c:v>102.32</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>100.11</c:v>
+                  <c:v>99.96</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>42.5</c:v>
+                  <c:v>42.54</c:v>
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>35.02</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>96.91</c:v>
+                  <c:v>97.26</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>99.79</c:v>
+                  <c:v>99.46</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>105.55</c:v>
+                  <c:v>105.33</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>103.92</c:v>
+                  <c:v>104.45</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>101.92</c:v>
+                  <c:v>101.83</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>47.88</c:v>
+                  <c:v>47.67</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>36.66</c:v>
+                  <c:v>36.64</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>100.11</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>102.36</c:v>
+                  <c:v>101.98</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>107</c:v>
+                  <c:v>107.6</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>105.69</c:v>
+                  <c:v>106.27</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>102.65</c:v>
+                  <c:v>102.55</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>48.86</c:v>
+                  <c:v>48.66</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>37.43</c:v>
+                  <c:v>37.49</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>104.41</c:v>
+                  <c:v>103.98</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>109.81</c:v>
+                  <c:v>109.74</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>108.21</c:v>
+                  <c:v>108.45</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>104.92</c:v>
+                  <c:v>104.88</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>49.59</c:v>
+                  <c:v>49.37</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>38.13</c:v>
+                  <c:v>38.19</c:v>
                 </c:pt>
                 <c:pt idx="249">
                   <c:v>102.15</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>107.2</c:v>
+                  <c:v>106.4</c:v>
                 </c:pt>
                 <c:pt idx="251">
                   <c:v>111.57</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>112.67</c:v>
+                  <c:v>111.11</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>107.12</c:v>
+                  <c:v>107.14</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>49.77</c:v>
+                  <c:v>49.58</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>38.83</c:v>
+                  <c:v>38.89</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>102.16</c:v>
+                  <c:v>104.49</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>108.77</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>113.45</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>112.36</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>110.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4063,9 +4123,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$258</c:f>
+              <c:f>Ridership!$B$2:$B$262</c:f>
               <c:strCache>
-                <c:ptCount val="257"/>
+                <c:ptCount val="261"/>
                 <c:pt idx="0">
                   <c:v>02 Jan 2016</c:v>
                 </c:pt>
@@ -4836,16 +4896,28 @@
                 </c:pt>
                 <c:pt idx="256">
                   <c:v>19 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>20 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>21 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>22 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>23 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$E$2:$E$258</c:f>
+              <c:f>Ridership!$E$2:$E$262</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="257"/>
+                <c:ptCount val="261"/>
                 <c:pt idx="0">
                   <c:v>39.42</c:v>
                 </c:pt>
@@ -5616,6 +5688,18 @@
                 </c:pt>
                 <c:pt idx="256">
                   <c:v>81.56</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>81.72</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>81.88</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>82.04</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>82.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5708,13 +5792,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>260</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>274</xdr:row>
+      <xdr:row>278</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6022,7 +6106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E258"/>
+  <dimension ref="A1:E262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9596,10 +9680,10 @@
         <v>220</v>
       </c>
       <c r="C210">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D210">
-        <v>92.47</v>
+        <v>92.6</v>
       </c>
       <c r="E210">
         <v>73.65</v>
@@ -9613,10 +9697,10 @@
         <v>221</v>
       </c>
       <c r="C211">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D211">
-        <v>93.86</v>
+        <v>93.8</v>
       </c>
       <c r="E211">
         <v>73.81</v>
@@ -9630,10 +9714,10 @@
         <v>222</v>
       </c>
       <c r="C212">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="D212">
-        <v>99.65</v>
+        <v>100.02</v>
       </c>
       <c r="E212">
         <v>73.97</v>
@@ -9647,10 +9731,10 @@
         <v>223</v>
       </c>
       <c r="C213">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D213">
-        <v>97.69</v>
+        <v>97.58</v>
       </c>
       <c r="E213">
         <v>74.13</v>
@@ -9664,10 +9748,10 @@
         <v>224</v>
       </c>
       <c r="C214">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D214">
-        <v>94.67</v>
+        <v>94.27</v>
       </c>
       <c r="E214">
         <v>74.29</v>
@@ -9681,10 +9765,10 @@
         <v>225</v>
       </c>
       <c r="C215">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D215">
-        <v>40.3</v>
+        <v>40.37</v>
       </c>
       <c r="E215">
         <v>74.45</v>
@@ -9698,10 +9782,10 @@
         <v>226</v>
       </c>
       <c r="C216">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D216">
-        <v>33.19</v>
+        <v>33.17</v>
       </c>
       <c r="E216">
         <v>74.62</v>
@@ -9715,10 +9799,10 @@
         <v>227</v>
       </c>
       <c r="C217">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D217">
-        <v>93.43</v>
+        <v>93.7</v>
       </c>
       <c r="E217">
         <v>74.78</v>
@@ -9732,10 +9816,10 @@
         <v>228</v>
       </c>
       <c r="C218">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D218">
-        <v>96.16</v>
+        <v>96.18</v>
       </c>
       <c r="E218">
         <v>74.94</v>
@@ -9749,10 +9833,10 @@
         <v>229</v>
       </c>
       <c r="C219">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D219">
-        <v>101.71</v>
+        <v>101.9</v>
       </c>
       <c r="E219">
         <v>75.1</v>
@@ -9766,10 +9850,10 @@
         <v>230</v>
       </c>
       <c r="C220">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D220">
-        <v>99.84</v>
+        <v>99.9</v>
       </c>
       <c r="E220">
         <v>75.26</v>
@@ -9783,10 +9867,10 @@
         <v>231</v>
       </c>
       <c r="C221">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D221">
-        <v>97.89</v>
+        <v>97.72</v>
       </c>
       <c r="E221">
         <v>75.42</v>
@@ -9803,7 +9887,7 @@
         <v>101</v>
       </c>
       <c r="D222">
-        <v>41.6</v>
+        <v>41.66</v>
       </c>
       <c r="E222">
         <v>75.58</v>
@@ -9817,7 +9901,7 @@
         <v>233</v>
       </c>
       <c r="C223">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D223">
         <v>34</v>
@@ -9834,10 +9918,10 @@
         <v>234</v>
       </c>
       <c r="C224">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D224">
-        <v>95.09</v>
+        <v>95.58</v>
       </c>
       <c r="E224">
         <v>75.91</v>
@@ -9851,10 +9935,10 @@
         <v>235</v>
       </c>
       <c r="C225">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D225">
-        <v>97.88</v>
+        <v>97.82</v>
       </c>
       <c r="E225">
         <v>76.07</v>
@@ -9868,10 +9952,10 @@
         <v>236</v>
       </c>
       <c r="C226">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D226">
-        <v>103.58</v>
+        <v>103.84</v>
       </c>
       <c r="E226">
         <v>76.23</v>
@@ -9885,10 +9969,10 @@
         <v>237</v>
       </c>
       <c r="C227">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D227">
-        <v>102</v>
+        <v>102.32</v>
       </c>
       <c r="E227">
         <v>76.39</v>
@@ -9902,10 +9986,10 @@
         <v>238</v>
       </c>
       <c r="C228">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D228">
-        <v>100.11</v>
+        <v>99.96</v>
       </c>
       <c r="E228">
         <v>76.55</v>
@@ -9919,10 +10003,10 @@
         <v>239</v>
       </c>
       <c r="C229">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D229">
-        <v>42.5</v>
+        <v>42.54</v>
       </c>
       <c r="E229">
         <v>76.71</v>
@@ -9953,10 +10037,10 @@
         <v>241</v>
       </c>
       <c r="C231">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D231">
-        <v>96.91</v>
+        <v>97.26</v>
       </c>
       <c r="E231">
         <v>77.04</v>
@@ -9970,10 +10054,10 @@
         <v>242</v>
       </c>
       <c r="C232">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="D232">
-        <v>99.79</v>
+        <v>99.46</v>
       </c>
       <c r="E232">
         <v>77.2</v>
@@ -9987,10 +10071,10 @@
         <v>243</v>
       </c>
       <c r="C233">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="D233">
-        <v>105.55</v>
+        <v>105.33</v>
       </c>
       <c r="E233">
         <v>77.36</v>
@@ -10004,10 +10088,10 @@
         <v>244</v>
       </c>
       <c r="C234">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D234">
-        <v>103.92</v>
+        <v>104.45</v>
       </c>
       <c r="E234">
         <v>77.52</v>
@@ -10021,10 +10105,10 @@
         <v>245</v>
       </c>
       <c r="C235">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D235">
-        <v>101.92</v>
+        <v>101.83</v>
       </c>
       <c r="E235">
         <v>77.68</v>
@@ -10038,10 +10122,10 @@
         <v>246</v>
       </c>
       <c r="C236">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D236">
-        <v>47.88</v>
+        <v>47.67</v>
       </c>
       <c r="E236">
         <v>77.84</v>
@@ -10055,10 +10139,10 @@
         <v>247</v>
       </c>
       <c r="C237">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D237">
-        <v>36.66</v>
+        <v>36.64</v>
       </c>
       <c r="E237">
         <v>78.01</v>
@@ -10072,10 +10156,10 @@
         <v>248</v>
       </c>
       <c r="C238">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="D238">
-        <v>100.11</v>
+        <v>100</v>
       </c>
       <c r="E238">
         <v>78.17</v>
@@ -10089,10 +10173,10 @@
         <v>249</v>
       </c>
       <c r="C239">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D239">
-        <v>102.36</v>
+        <v>101.98</v>
       </c>
       <c r="E239">
         <v>78.33</v>
@@ -10106,10 +10190,10 @@
         <v>250</v>
       </c>
       <c r="C240">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="D240">
-        <v>107</v>
+        <v>107.6</v>
       </c>
       <c r="E240">
         <v>78.49</v>
@@ -10123,10 +10207,10 @@
         <v>251</v>
       </c>
       <c r="C241">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D241">
-        <v>105.69</v>
+        <v>106.27</v>
       </c>
       <c r="E241">
         <v>78.65</v>
@@ -10140,10 +10224,10 @@
         <v>252</v>
       </c>
       <c r="C242">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D242">
-        <v>102.65</v>
+        <v>102.55</v>
       </c>
       <c r="E242">
         <v>78.81</v>
@@ -10160,7 +10244,7 @@
         <v>97</v>
       </c>
       <c r="D243">
-        <v>48.86</v>
+        <v>48.66</v>
       </c>
       <c r="E243">
         <v>78.97</v>
@@ -10174,10 +10258,10 @@
         <v>254</v>
       </c>
       <c r="C244">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D244">
-        <v>37.43</v>
+        <v>37.49</v>
       </c>
       <c r="E244">
         <v>79.14</v>
@@ -10191,10 +10275,10 @@
         <v>255</v>
       </c>
       <c r="C245">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D245">
-        <v>104.41</v>
+        <v>103.98</v>
       </c>
       <c r="E245">
         <v>79.46</v>
@@ -10208,10 +10292,10 @@
         <v>256</v>
       </c>
       <c r="C246">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="D246">
-        <v>109.81</v>
+        <v>109.74</v>
       </c>
       <c r="E246">
         <v>79.62</v>
@@ -10225,10 +10309,10 @@
         <v>257</v>
       </c>
       <c r="C247">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="D247">
-        <v>108.21</v>
+        <v>108.45</v>
       </c>
       <c r="E247">
         <v>79.78</v>
@@ -10242,10 +10326,10 @@
         <v>258</v>
       </c>
       <c r="C248">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D248">
-        <v>104.92</v>
+        <v>104.88</v>
       </c>
       <c r="E248">
         <v>79.94</v>
@@ -10259,10 +10343,10 @@
         <v>259</v>
       </c>
       <c r="C249">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D249">
-        <v>49.59</v>
+        <v>49.37</v>
       </c>
       <c r="E249">
         <v>80.1</v>
@@ -10279,7 +10363,7 @@
         <v>74</v>
       </c>
       <c r="D250">
-        <v>38.13</v>
+        <v>38.19</v>
       </c>
       <c r="E250">
         <v>80.27</v>
@@ -10293,7 +10377,7 @@
         <v>261</v>
       </c>
       <c r="C251">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D251">
         <v>102.15</v>
@@ -10310,10 +10394,10 @@
         <v>262</v>
       </c>
       <c r="C252">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D252">
-        <v>107.2</v>
+        <v>106.4</v>
       </c>
       <c r="E252">
         <v>80.59</v>
@@ -10327,7 +10411,7 @@
         <v>263</v>
       </c>
       <c r="C253">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D253">
         <v>111.57</v>
@@ -10344,10 +10428,10 @@
         <v>264</v>
       </c>
       <c r="C254">
-        <v>349</v>
+        <v>252</v>
       </c>
       <c r="D254">
-        <v>112.67</v>
+        <v>111.11</v>
       </c>
       <c r="E254">
         <v>80.91</v>
@@ -10361,10 +10445,10 @@
         <v>265</v>
       </c>
       <c r="C255">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D255">
-        <v>107.12</v>
+        <v>107.14</v>
       </c>
       <c r="E255">
         <v>81.07</v>
@@ -10378,10 +10462,10 @@
         <v>266</v>
       </c>
       <c r="C256">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D256">
-        <v>49.77</v>
+        <v>49.58</v>
       </c>
       <c r="E256">
         <v>81.23</v>
@@ -10398,7 +10482,7 @@
         <v>75</v>
       </c>
       <c r="D257">
-        <v>38.83</v>
+        <v>38.89</v>
       </c>
       <c r="E257">
         <v>81.4</v>
@@ -10412,13 +10496,81 @@
         <v>268</v>
       </c>
       <c r="C258">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="D258">
-        <v>102.16</v>
+        <v>104.49</v>
       </c>
       <c r="E258">
         <v>81.56</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>11</v>
+      </c>
+      <c r="B259" t="s">
+        <v>269</v>
+      </c>
+      <c r="C259">
+        <v>239</v>
+      </c>
+      <c r="D259">
+        <v>108.77</v>
+      </c>
+      <c r="E259">
+        <v>81.72</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>13</v>
+      </c>
+      <c r="B260" t="s">
+        <v>270</v>
+      </c>
+      <c r="C260">
+        <v>215</v>
+      </c>
+      <c r="D260">
+        <v>113.45</v>
+      </c>
+      <c r="E260">
+        <v>81.88</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>15</v>
+      </c>
+      <c r="B261" t="s">
+        <v>271</v>
+      </c>
+      <c r="C261">
+        <v>180</v>
+      </c>
+      <c r="D261">
+        <v>112.36</v>
+      </c>
+      <c r="E261">
+        <v>82.04</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>17</v>
+      </c>
+      <c r="B262" t="s">
+        <v>272</v>
+      </c>
+      <c r="C262">
+        <v>277</v>
+      </c>
+      <c r="D262">
+        <v>110.4</v>
+      </c>
+      <c r="E262">
+        <v>82.2</v>
       </c>
     </row>
   </sheetData>

--- a/rider/annual/2016.xlsx
+++ b/rider/annual/2016.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="304">
   <si>
     <t>Weekday</t>
   </si>
@@ -833,6 +833,99 @@
   </si>
   <si>
     <t>23 Sep 2016</t>
+  </si>
+  <si>
+    <t>24 Sep 2016</t>
+  </si>
+  <si>
+    <t>25 Sep 2016</t>
+  </si>
+  <si>
+    <t>26 Sep 2016</t>
+  </si>
+  <si>
+    <t>27 Sep 2016</t>
+  </si>
+  <si>
+    <t>28 Sep 2016</t>
+  </si>
+  <si>
+    <t>29 Sep 2016</t>
+  </si>
+  <si>
+    <t>30 Sep 2016</t>
+  </si>
+  <si>
+    <t>01 Oct 2016</t>
+  </si>
+  <si>
+    <t>02 Oct 2016</t>
+  </si>
+  <si>
+    <t>03 Oct 2016</t>
+  </si>
+  <si>
+    <t>04 Oct 2016</t>
+  </si>
+  <si>
+    <t>05 Oct 2016</t>
+  </si>
+  <si>
+    <t>06 Oct 2016</t>
+  </si>
+  <si>
+    <t>07 Oct 2016</t>
+  </si>
+  <si>
+    <t>08 Oct 2016</t>
+  </si>
+  <si>
+    <t>09 Oct 2016</t>
+  </si>
+  <si>
+    <t>11 Oct 2016</t>
+  </si>
+  <si>
+    <t>12 Oct 2016</t>
+  </si>
+  <si>
+    <t>13 Oct 2016</t>
+  </si>
+  <si>
+    <t>14 Oct 2016</t>
+  </si>
+  <si>
+    <t>15 Oct 2016</t>
+  </si>
+  <si>
+    <t>16 Oct 2016</t>
+  </si>
+  <si>
+    <t>17 Oct 2016</t>
+  </si>
+  <si>
+    <t>18 Oct 2016</t>
+  </si>
+  <si>
+    <t>19 Oct 2016</t>
+  </si>
+  <si>
+    <t>20 Oct 2016</t>
+  </si>
+  <si>
+    <t>21 Oct 2016</t>
+  </si>
+  <si>
+    <t>22 Oct 2016</t>
+  </si>
+  <si>
+    <t>23 Oct 2016</t>
+  </si>
+  <si>
+    <t>24 Oct 2016</t>
+  </si>
+  <si>
+    <t>25 Oct 2016</t>
   </si>
 </sst>
 </file>
@@ -923,9 +1016,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$262</c:f>
+              <c:f>Ridership!$B$2:$B$293</c:f>
               <c:strCache>
-                <c:ptCount val="261"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>02 Jan 2016</c:v>
                 </c:pt>
@@ -1708,16 +1801,109 @@
                 </c:pt>
                 <c:pt idx="260">
                   <c:v>23 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>24 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>25 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>26 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>27 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>28 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>29 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>30 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>01 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>02 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>03 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>04 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>05 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>06 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>07 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>08 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>09 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>11 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>12 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>13 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>14 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>15 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>16 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>17 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>18 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>19 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>20 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>21 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>22 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>23 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>24 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>25 Oct 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$C$2:$C$262</c:f>
+              <c:f>Ridership!$C$2:$C$293</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="261"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -2343,19 +2529,19 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>185</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>181</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>193</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>173</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>179</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>69</c:v>
@@ -2364,142 +2550,235 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>141</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="216">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="217">
                   <c:v>213</c:v>
                 </c:pt>
-                <c:pt idx="217">
-                  <c:v>192</c:v>
-                </c:pt>
                 <c:pt idx="218">
-                  <c:v>211</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>253</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>101</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>73</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>178</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>180</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>199</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>221</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>203</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>84</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="229">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="238">
                   <c:v>173</c:v>
                 </c:pt>
-                <c:pt idx="230">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>223</c:v>
-                </c:pt>
                 <c:pt idx="239">
-                  <c:v>199</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>137</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="241">
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>80</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="243">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="246">
                   <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="247">
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>74</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>203</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>237</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>209</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>252</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>220</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="254">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="255">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="268">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="256">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="257">
+                <c:pt idx="269">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="291">
                   <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2523,9 +2802,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$262</c:f>
+              <c:f>Ridership!$B$2:$B$293</c:f>
               <c:strCache>
-                <c:ptCount val="261"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>02 Jan 2016</c:v>
                 </c:pt>
@@ -3308,16 +3587,109 @@
                 </c:pt>
                 <c:pt idx="260">
                   <c:v>23 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>24 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>25 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>26 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>27 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>28 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>29 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>30 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>01 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>02 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>03 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>04 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>05 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>06 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>07 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>08 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>09 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>11 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>12 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>13 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>14 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>15 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>16 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>17 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>18 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>19 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>20 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>21 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>22 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>23 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>24 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>25 Oct 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$D$2:$D$262</c:f>
+              <c:f>Ridership!$D$2:$D$293</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="261"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>19.13</c:v>
                 </c:pt>
@@ -3943,19 +4315,19 @@
                   <c:v>32.98</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>92.6</c:v>
+                  <c:v>92.49</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>93.8</c:v>
+                  <c:v>93.59</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>100.02</c:v>
+                  <c:v>100.35</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>97.58</c:v>
+                  <c:v>97.48</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>94.27</c:v>
+                  <c:v>94.38</c:v>
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>40.37</c:v>
@@ -3964,142 +4336,235 @@
                   <c:v>33.17</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>93.7</c:v>
+                  <c:v>93.55</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>96.18</c:v>
+                  <c:v>96.1</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>101.9</c:v>
+                  <c:v>102.65</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>99.9</c:v>
+                  <c:v>99.47</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>97.72</c:v>
+                  <c:v>97.74</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>41.66</c:v>
+                  <c:v>41.64</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>34</c:v>
+                  <c:v>33.98</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>95.58</c:v>
+                  <c:v>95.51</c:v>
                 </c:pt>
                 <c:pt idx="223">
                   <c:v>97.82</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>103.84</c:v>
+                  <c:v>104.14</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>102.32</c:v>
+                  <c:v>102.2</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>99.96</c:v>
+                  <c:v>99.94</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>42.54</c:v>
+                  <c:v>42.58</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>35.02</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>97.26</c:v>
+                  <c:v>97.46</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>99.46</c:v>
+                  <c:v>99.75</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>105.33</c:v>
+                  <c:v>105.84</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>104.45</c:v>
+                  <c:v>104.24</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>101.83</c:v>
+                  <c:v>101.79</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>47.67</c:v>
+                  <c:v>47.9</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>36.64</c:v>
+                  <c:v>36.66</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>100</c:v>
+                  <c:v>100.26</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>101.98</c:v>
+                  <c:v>102.6</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>107.6</c:v>
+                  <c:v>107.13</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>106.27</c:v>
+                  <c:v>105.94</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>102.55</c:v>
+                  <c:v>102.76</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>48.66</c:v>
+                  <c:v>48.88</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>37.49</c:v>
+                  <c:v>37.45</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>103.98</c:v>
+                  <c:v>104.09</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>109.74</c:v>
+                  <c:v>109.64</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>108.45</c:v>
+                  <c:v>108.23</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>104.88</c:v>
+                  <c:v>104.9</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>49.37</c:v>
+                  <c:v>49.59</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>38.19</c:v>
+                  <c:v>38.13</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>102.15</c:v>
+                  <c:v>101.75</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>106.4</c:v>
+                  <c:v>106.89</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>111.57</c:v>
+                  <c:v>112.06</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>111.11</c:v>
+                  <c:v>110.3</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>107.14</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>49.58</c:v>
+                  <c:v>49.79</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>38.89</c:v>
+                  <c:v>38.81</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>104.49</c:v>
+                  <c:v>104.35</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>108.77</c:v>
+                  <c:v>108.89</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>113.45</c:v>
+                  <c:v>114.05</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>112.36</c:v>
+                  <c:v>111.76</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>110.4</c:v>
+                  <c:v>109.94</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>50.87</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>39.33</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>106.72</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>110.3</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>115.2</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>113.32</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>112.89</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>51.31</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>39.65</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>109.25</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>113.29</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>117.61</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>115.12</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>116.3</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>52.36</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>40.12</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>115.41</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>119.6</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>117.5</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>118.47</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>52.79</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>40.53</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>111.15</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>117.98</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>122.56</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>119.8</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>120.91</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>54.02</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>113.81</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>119.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4123,9 +4588,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$262</c:f>
+              <c:f>Ridership!$B$2:$B$293</c:f>
               <c:strCache>
-                <c:ptCount val="261"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>02 Jan 2016</c:v>
                 </c:pt>
@@ -4908,16 +5373,109 @@
                 </c:pt>
                 <c:pt idx="260">
                   <c:v>23 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>24 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>25 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>26 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>27 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>28 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>29 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>30 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>01 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>02 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>03 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>04 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>05 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>06 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>07 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>08 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>09 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>11 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>12 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>13 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>14 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>15 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>16 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>17 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>18 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>19 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>20 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>21 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>22 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>23 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>24 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>25 Oct 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$E$2:$E$262</c:f>
+              <c:f>Ridership!$E$2:$E$293</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="261"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>39.42</c:v>
                 </c:pt>
@@ -5700,6 +6258,99 @@
                 </c:pt>
                 <c:pt idx="260">
                   <c:v>82.2</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>82.36</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>82.53</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>82.69</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>82.85</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>83.01</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>83.17</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>83.33</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>83.49</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>83.66</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>83.82</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>83.98</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>84.14</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>84.3</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>84.46</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>84.62</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>84.79</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>85.11</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>85.27</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>85.43</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>85.59</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>85.76</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>85.92</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>86.08</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>86.24</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>86.56</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>86.72</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>86.89</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>87.05</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>87.21</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>87.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5792,13 +6443,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>295</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>278</xdr:row>
+      <xdr:row>309</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6106,7 +6757,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E262"/>
+  <dimension ref="A1:E293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9680,10 +10331,10 @@
         <v>220</v>
       </c>
       <c r="C210">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D210">
-        <v>92.6</v>
+        <v>92.49</v>
       </c>
       <c r="E210">
         <v>73.65</v>
@@ -9697,10 +10348,10 @@
         <v>221</v>
       </c>
       <c r="C211">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D211">
-        <v>93.8</v>
+        <v>93.59</v>
       </c>
       <c r="E211">
         <v>73.81</v>
@@ -9714,10 +10365,10 @@
         <v>222</v>
       </c>
       <c r="C212">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D212">
-        <v>100.02</v>
+        <v>100.35</v>
       </c>
       <c r="E212">
         <v>73.97</v>
@@ -9731,10 +10382,10 @@
         <v>223</v>
       </c>
       <c r="C213">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D213">
-        <v>97.58</v>
+        <v>97.48</v>
       </c>
       <c r="E213">
         <v>74.13</v>
@@ -9748,10 +10399,10 @@
         <v>224</v>
       </c>
       <c r="C214">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D214">
-        <v>94.27</v>
+        <v>94.38</v>
       </c>
       <c r="E214">
         <v>74.29</v>
@@ -9799,10 +10450,10 @@
         <v>227</v>
       </c>
       <c r="C217">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D217">
-        <v>93.7</v>
+        <v>93.55</v>
       </c>
       <c r="E217">
         <v>74.78</v>
@@ -9816,10 +10467,10 @@
         <v>228</v>
       </c>
       <c r="C218">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D218">
-        <v>96.18</v>
+        <v>96.1</v>
       </c>
       <c r="E218">
         <v>74.94</v>
@@ -9833,10 +10484,10 @@
         <v>229</v>
       </c>
       <c r="C219">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="D219">
-        <v>101.9</v>
+        <v>102.65</v>
       </c>
       <c r="E219">
         <v>75.1</v>
@@ -9850,10 +10501,10 @@
         <v>230</v>
       </c>
       <c r="C220">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D220">
-        <v>99.9</v>
+        <v>99.47</v>
       </c>
       <c r="E220">
         <v>75.26</v>
@@ -9867,10 +10518,10 @@
         <v>231</v>
       </c>
       <c r="C221">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D221">
-        <v>97.72</v>
+        <v>97.74</v>
       </c>
       <c r="E221">
         <v>75.42</v>
@@ -9884,10 +10535,10 @@
         <v>232</v>
       </c>
       <c r="C222">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D222">
-        <v>41.66</v>
+        <v>41.64</v>
       </c>
       <c r="E222">
         <v>75.58</v>
@@ -9901,10 +10552,10 @@
         <v>233</v>
       </c>
       <c r="C223">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D223">
-        <v>34</v>
+        <v>33.98</v>
       </c>
       <c r="E223">
         <v>75.75</v>
@@ -9918,10 +10569,10 @@
         <v>234</v>
       </c>
       <c r="C224">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D224">
-        <v>95.58</v>
+        <v>95.51</v>
       </c>
       <c r="E224">
         <v>75.91</v>
@@ -9935,7 +10586,7 @@
         <v>235</v>
       </c>
       <c r="C225">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D225">
         <v>97.82</v>
@@ -9952,10 +10603,10 @@
         <v>236</v>
       </c>
       <c r="C226">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="D226">
-        <v>103.84</v>
+        <v>104.14</v>
       </c>
       <c r="E226">
         <v>76.23</v>
@@ -9969,10 +10620,10 @@
         <v>237</v>
       </c>
       <c r="C227">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D227">
-        <v>102.32</v>
+        <v>102.2</v>
       </c>
       <c r="E227">
         <v>76.39</v>
@@ -9986,10 +10637,10 @@
         <v>238</v>
       </c>
       <c r="C228">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D228">
-        <v>99.96</v>
+        <v>99.94</v>
       </c>
       <c r="E228">
         <v>76.55</v>
@@ -10003,10 +10654,10 @@
         <v>239</v>
       </c>
       <c r="C229">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D229">
-        <v>42.54</v>
+        <v>42.58</v>
       </c>
       <c r="E229">
         <v>76.71</v>
@@ -10023,7 +10674,7 @@
         <v>84</v>
       </c>
       <c r="D230">
-        <v>35.02</v>
+        <v>35</v>
       </c>
       <c r="E230">
         <v>76.88</v>
@@ -10037,10 +10688,10 @@
         <v>241</v>
       </c>
       <c r="C231">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D231">
-        <v>97.26</v>
+        <v>97.46</v>
       </c>
       <c r="E231">
         <v>77.04</v>
@@ -10054,10 +10705,10 @@
         <v>242</v>
       </c>
       <c r="C232">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="D232">
-        <v>99.46</v>
+        <v>99.75</v>
       </c>
       <c r="E232">
         <v>77.2</v>
@@ -10071,10 +10722,10 @@
         <v>243</v>
       </c>
       <c r="C233">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D233">
-        <v>105.33</v>
+        <v>105.84</v>
       </c>
       <c r="E233">
         <v>77.36</v>
@@ -10088,10 +10739,10 @@
         <v>244</v>
       </c>
       <c r="C234">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D234">
-        <v>104.45</v>
+        <v>104.24</v>
       </c>
       <c r="E234">
         <v>77.52</v>
@@ -10105,10 +10756,10 @@
         <v>245</v>
       </c>
       <c r="C235">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D235">
-        <v>101.83</v>
+        <v>101.79</v>
       </c>
       <c r="E235">
         <v>77.68</v>
@@ -10122,10 +10773,10 @@
         <v>246</v>
       </c>
       <c r="C236">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D236">
-        <v>47.67</v>
+        <v>47.9</v>
       </c>
       <c r="E236">
         <v>77.84</v>
@@ -10139,10 +10790,10 @@
         <v>247</v>
       </c>
       <c r="C237">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D237">
-        <v>36.64</v>
+        <v>36.66</v>
       </c>
       <c r="E237">
         <v>78.01</v>
@@ -10156,10 +10807,10 @@
         <v>248</v>
       </c>
       <c r="C238">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D238">
-        <v>100</v>
+        <v>100.26</v>
       </c>
       <c r="E238">
         <v>78.17</v>
@@ -10173,10 +10824,10 @@
         <v>249</v>
       </c>
       <c r="C239">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="D239">
-        <v>101.98</v>
+        <v>102.6</v>
       </c>
       <c r="E239">
         <v>78.33</v>
@@ -10190,10 +10841,10 @@
         <v>250</v>
       </c>
       <c r="C240">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="D240">
-        <v>107.6</v>
+        <v>107.13</v>
       </c>
       <c r="E240">
         <v>78.49</v>
@@ -10207,10 +10858,10 @@
         <v>251</v>
       </c>
       <c r="C241">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D241">
-        <v>106.27</v>
+        <v>105.94</v>
       </c>
       <c r="E241">
         <v>78.65</v>
@@ -10224,10 +10875,10 @@
         <v>252</v>
       </c>
       <c r="C242">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D242">
-        <v>102.55</v>
+        <v>102.76</v>
       </c>
       <c r="E242">
         <v>78.81</v>
@@ -10244,7 +10895,7 @@
         <v>97</v>
       </c>
       <c r="D243">
-        <v>48.66</v>
+        <v>48.88</v>
       </c>
       <c r="E243">
         <v>78.97</v>
@@ -10258,10 +10909,10 @@
         <v>254</v>
       </c>
       <c r="C244">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D244">
-        <v>37.49</v>
+        <v>37.45</v>
       </c>
       <c r="E244">
         <v>79.14</v>
@@ -10275,10 +10926,10 @@
         <v>255</v>
       </c>
       <c r="C245">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="D245">
-        <v>103.98</v>
+        <v>104.09</v>
       </c>
       <c r="E245">
         <v>79.46</v>
@@ -10292,10 +10943,10 @@
         <v>256</v>
       </c>
       <c r="C246">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="D246">
-        <v>109.74</v>
+        <v>109.64</v>
       </c>
       <c r="E246">
         <v>79.62</v>
@@ -10309,10 +10960,10 @@
         <v>257</v>
       </c>
       <c r="C247">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D247">
-        <v>108.45</v>
+        <v>108.23</v>
       </c>
       <c r="E247">
         <v>79.78</v>
@@ -10326,10 +10977,10 @@
         <v>258</v>
       </c>
       <c r="C248">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D248">
-        <v>104.88</v>
+        <v>104.9</v>
       </c>
       <c r="E248">
         <v>79.94</v>
@@ -10346,7 +10997,7 @@
         <v>85</v>
       </c>
       <c r="D249">
-        <v>49.37</v>
+        <v>49.59</v>
       </c>
       <c r="E249">
         <v>80.1</v>
@@ -10360,10 +11011,10 @@
         <v>260</v>
       </c>
       <c r="C250">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D250">
-        <v>38.19</v>
+        <v>38.13</v>
       </c>
       <c r="E250">
         <v>80.27</v>
@@ -10377,10 +11028,10 @@
         <v>261</v>
       </c>
       <c r="C251">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="D251">
-        <v>102.15</v>
+        <v>101.75</v>
       </c>
       <c r="E251">
         <v>80.43</v>
@@ -10394,10 +11045,10 @@
         <v>262</v>
       </c>
       <c r="C252">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="D252">
-        <v>106.4</v>
+        <v>106.89</v>
       </c>
       <c r="E252">
         <v>80.59</v>
@@ -10411,10 +11062,10 @@
         <v>263</v>
       </c>
       <c r="C253">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="D253">
-        <v>111.57</v>
+        <v>112.06</v>
       </c>
       <c r="E253">
         <v>80.75</v>
@@ -10428,10 +11079,10 @@
         <v>264</v>
       </c>
       <c r="C254">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="D254">
-        <v>111.11</v>
+        <v>110.3</v>
       </c>
       <c r="E254">
         <v>80.91</v>
@@ -10445,10 +11096,10 @@
         <v>265</v>
       </c>
       <c r="C255">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D255">
-        <v>107.14</v>
+        <v>107</v>
       </c>
       <c r="E255">
         <v>81.07</v>
@@ -10465,7 +11116,7 @@
         <v>60</v>
       </c>
       <c r="D256">
-        <v>49.58</v>
+        <v>49.79</v>
       </c>
       <c r="E256">
         <v>81.23</v>
@@ -10479,10 +11130,10 @@
         <v>267</v>
       </c>
       <c r="C257">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D257">
-        <v>38.89</v>
+        <v>38.81</v>
       </c>
       <c r="E257">
         <v>81.4</v>
@@ -10496,10 +11147,10 @@
         <v>268</v>
       </c>
       <c r="C258">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D258">
-        <v>104.49</v>
+        <v>104.35</v>
       </c>
       <c r="E258">
         <v>81.56</v>
@@ -10513,10 +11164,10 @@
         <v>269</v>
       </c>
       <c r="C259">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="D259">
-        <v>108.77</v>
+        <v>108.89</v>
       </c>
       <c r="E259">
         <v>81.72</v>
@@ -10530,10 +11181,10 @@
         <v>270</v>
       </c>
       <c r="C260">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D260">
-        <v>113.45</v>
+        <v>114.05</v>
       </c>
       <c r="E260">
         <v>81.88</v>
@@ -10547,10 +11198,10 @@
         <v>271</v>
       </c>
       <c r="C261">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D261">
-        <v>112.36</v>
+        <v>111.76</v>
       </c>
       <c r="E261">
         <v>82.04</v>
@@ -10564,13 +11215,540 @@
         <v>272</v>
       </c>
       <c r="C262">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="D262">
-        <v>110.4</v>
+        <v>109.94</v>
       </c>
       <c r="E262">
         <v>82.2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263" t="s">
+        <v>273</v>
+      </c>
+      <c r="C263">
+        <v>107</v>
+      </c>
+      <c r="D263">
+        <v>50.87</v>
+      </c>
+      <c r="E263">
+        <v>82.36</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>7</v>
+      </c>
+      <c r="B264" t="s">
+        <v>274</v>
+      </c>
+      <c r="C264">
+        <v>67</v>
+      </c>
+      <c r="D264">
+        <v>39.33</v>
+      </c>
+      <c r="E264">
+        <v>82.53</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>9</v>
+      </c>
+      <c r="B265" t="s">
+        <v>275</v>
+      </c>
+      <c r="C265">
+        <v>223</v>
+      </c>
+      <c r="D265">
+        <v>106.72</v>
+      </c>
+      <c r="E265">
+        <v>82.69</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>11</v>
+      </c>
+      <c r="B266" t="s">
+        <v>276</v>
+      </c>
+      <c r="C266">
+        <v>189</v>
+      </c>
+      <c r="D266">
+        <v>110.3</v>
+      </c>
+      <c r="E266">
+        <v>82.85</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>13</v>
+      </c>
+      <c r="B267" t="s">
+        <v>277</v>
+      </c>
+      <c r="C267">
+        <v>178</v>
+      </c>
+      <c r="D267">
+        <v>115.2</v>
+      </c>
+      <c r="E267">
+        <v>83.01</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>15</v>
+      </c>
+      <c r="B268" t="s">
+        <v>278</v>
+      </c>
+      <c r="C268">
+        <v>199</v>
+      </c>
+      <c r="D268">
+        <v>113.32</v>
+      </c>
+      <c r="E268">
+        <v>83.17</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>17</v>
+      </c>
+      <c r="B269" t="s">
+        <v>279</v>
+      </c>
+      <c r="C269">
+        <v>266</v>
+      </c>
+      <c r="D269">
+        <v>112.89</v>
+      </c>
+      <c r="E269">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>5</v>
+      </c>
+      <c r="B270" t="s">
+        <v>280</v>
+      </c>
+      <c r="C270">
+        <v>75</v>
+      </c>
+      <c r="D270">
+        <v>51.31</v>
+      </c>
+      <c r="E270">
+        <v>83.49</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>7</v>
+      </c>
+      <c r="B271" t="s">
+        <v>281</v>
+      </c>
+      <c r="C271">
+        <v>57</v>
+      </c>
+      <c r="D271">
+        <v>39.65</v>
+      </c>
+      <c r="E271">
+        <v>83.66</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>9</v>
+      </c>
+      <c r="B272" t="s">
+        <v>282</v>
+      </c>
+      <c r="C272">
+        <v>236</v>
+      </c>
+      <c r="D272">
+        <v>109.25</v>
+      </c>
+      <c r="E272">
+        <v>83.82</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>11</v>
+      </c>
+      <c r="B273" t="s">
+        <v>283</v>
+      </c>
+      <c r="C273">
+        <v>284</v>
+      </c>
+      <c r="D273">
+        <v>113.29</v>
+      </c>
+      <c r="E273">
+        <v>83.98</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>13</v>
+      </c>
+      <c r="B274" t="s">
+        <v>284</v>
+      </c>
+      <c r="C274">
+        <v>253</v>
+      </c>
+      <c r="D274">
+        <v>117.61</v>
+      </c>
+      <c r="E274">
+        <v>84.14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>15</v>
+      </c>
+      <c r="B275" t="s">
+        <v>285</v>
+      </c>
+      <c r="C275">
+        <v>216</v>
+      </c>
+      <c r="D275">
+        <v>115.12</v>
+      </c>
+      <c r="E275">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>17</v>
+      </c>
+      <c r="B276" t="s">
+        <v>286</v>
+      </c>
+      <c r="C276">
+        <v>297</v>
+      </c>
+      <c r="D276">
+        <v>116.3</v>
+      </c>
+      <c r="E276">
+        <v>84.46</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>5</v>
+      </c>
+      <c r="B277" t="s">
+        <v>287</v>
+      </c>
+      <c r="C277">
+        <v>109</v>
+      </c>
+      <c r="D277">
+        <v>52.36</v>
+      </c>
+      <c r="E277">
+        <v>84.62</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>7</v>
+      </c>
+      <c r="B278" t="s">
+        <v>288</v>
+      </c>
+      <c r="C278">
+        <v>66</v>
+      </c>
+      <c r="D278">
+        <v>40.12</v>
+      </c>
+      <c r="E278">
+        <v>84.79</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="s">
+        <v>11</v>
+      </c>
+      <c r="B279" t="s">
+        <v>289</v>
+      </c>
+      <c r="C279">
+        <v>238</v>
+      </c>
+      <c r="D279">
+        <v>115.41</v>
+      </c>
+      <c r="E279">
+        <v>85.11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" t="s">
+        <v>13</v>
+      </c>
+      <c r="B280" t="s">
+        <v>290</v>
+      </c>
+      <c r="C280">
+        <v>233</v>
+      </c>
+      <c r="D280">
+        <v>119.6</v>
+      </c>
+      <c r="E280">
+        <v>85.27</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" t="s">
+        <v>15</v>
+      </c>
+      <c r="B281" t="s">
+        <v>291</v>
+      </c>
+      <c r="C281">
+        <v>253</v>
+      </c>
+      <c r="D281">
+        <v>117.5</v>
+      </c>
+      <c r="E281">
+        <v>85.43</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" t="s">
+        <v>17</v>
+      </c>
+      <c r="B282" t="s">
+        <v>292</v>
+      </c>
+      <c r="C282">
+        <v>236</v>
+      </c>
+      <c r="D282">
+        <v>118.47</v>
+      </c>
+      <c r="E282">
+        <v>85.59</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>5</v>
+      </c>
+      <c r="B283" t="s">
+        <v>293</v>
+      </c>
+      <c r="C283">
+        <v>76</v>
+      </c>
+      <c r="D283">
+        <v>52.79</v>
+      </c>
+      <c r="E283">
+        <v>85.76</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
+        <v>7</v>
+      </c>
+      <c r="B284" t="s">
+        <v>294</v>
+      </c>
+      <c r="C284">
+        <v>63</v>
+      </c>
+      <c r="D284">
+        <v>40.53</v>
+      </c>
+      <c r="E284">
+        <v>85.92</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="s">
+        <v>9</v>
+      </c>
+      <c r="B285" t="s">
+        <v>295</v>
+      </c>
+      <c r="C285">
+        <v>208</v>
+      </c>
+      <c r="D285">
+        <v>111.15</v>
+      </c>
+      <c r="E285">
+        <v>86.08</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="s">
+        <v>11</v>
+      </c>
+      <c r="B286" t="s">
+        <v>296</v>
+      </c>
+      <c r="C286">
+        <v>270</v>
+      </c>
+      <c r="D286">
+        <v>117.98</v>
+      </c>
+      <c r="E286">
+        <v>86.24</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>13</v>
+      </c>
+      <c r="B287" t="s">
+        <v>297</v>
+      </c>
+      <c r="C287">
+        <v>294</v>
+      </c>
+      <c r="D287">
+        <v>122.56</v>
+      </c>
+      <c r="E287">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" t="s">
+        <v>15</v>
+      </c>
+      <c r="B288" t="s">
+        <v>298</v>
+      </c>
+      <c r="C288">
+        <v>253</v>
+      </c>
+      <c r="D288">
+        <v>119.8</v>
+      </c>
+      <c r="E288">
+        <v>86.56</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" t="s">
+        <v>17</v>
+      </c>
+      <c r="B289" t="s">
+        <v>299</v>
+      </c>
+      <c r="C289">
+        <v>255</v>
+      </c>
+      <c r="D289">
+        <v>120.91</v>
+      </c>
+      <c r="E289">
+        <v>86.72</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" t="s">
+        <v>5</v>
+      </c>
+      <c r="B290" t="s">
+        <v>300</v>
+      </c>
+      <c r="C290">
+        <v>123</v>
+      </c>
+      <c r="D290">
+        <v>54.02</v>
+      </c>
+      <c r="E290">
+        <v>86.89</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" t="s">
+        <v>7</v>
+      </c>
+      <c r="B291" t="s">
+        <v>301</v>
+      </c>
+      <c r="C291">
+        <v>103</v>
+      </c>
+      <c r="D291">
+        <v>41.6</v>
+      </c>
+      <c r="E291">
+        <v>87.05</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" t="s">
+        <v>9</v>
+      </c>
+      <c r="B292" t="s">
+        <v>302</v>
+      </c>
+      <c r="C292">
+        <v>252</v>
+      </c>
+      <c r="D292">
+        <v>113.81</v>
+      </c>
+      <c r="E292">
+        <v>87.21</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" t="s">
+        <v>11</v>
+      </c>
+      <c r="B293" t="s">
+        <v>303</v>
+      </c>
+      <c r="C293">
+        <v>239</v>
+      </c>
+      <c r="D293">
+        <v>119.97</v>
+      </c>
+      <c r="E293">
+        <v>87.37</v>
       </c>
     </row>
   </sheetData>

--- a/rider/annual/2016.xlsx
+++ b/rider/annual/2016.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CTR-External (6040)\CMAQ12-13 (6085)\go\reports\rider\annual\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Ridership" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="304">
   <si>
     <t>Weekday</t>
   </si>
@@ -833,13 +838,106 @@
   </si>
   <si>
     <t>23 Sep 2016</t>
+  </si>
+  <si>
+    <t>24 Sep 2016</t>
+  </si>
+  <si>
+    <t>25 Sep 2016</t>
+  </si>
+  <si>
+    <t>26 Sep 2016</t>
+  </si>
+  <si>
+    <t>27 Sep 2016</t>
+  </si>
+  <si>
+    <t>28 Sep 2016</t>
+  </si>
+  <si>
+    <t>29 Sep 2016</t>
+  </si>
+  <si>
+    <t>30 Sep 2016</t>
+  </si>
+  <si>
+    <t>01 Oct 2016</t>
+  </si>
+  <si>
+    <t>02 Oct 2016</t>
+  </si>
+  <si>
+    <t>03 Oct 2016</t>
+  </si>
+  <si>
+    <t>04 Oct 2016</t>
+  </si>
+  <si>
+    <t>05 Oct 2016</t>
+  </si>
+  <si>
+    <t>06 Oct 2016</t>
+  </si>
+  <si>
+    <t>07 Oct 2016</t>
+  </si>
+  <si>
+    <t>08 Oct 2016</t>
+  </si>
+  <si>
+    <t>09 Oct 2016</t>
+  </si>
+  <si>
+    <t>11 Oct 2016</t>
+  </si>
+  <si>
+    <t>12 Oct 2016</t>
+  </si>
+  <si>
+    <t>13 Oct 2016</t>
+  </si>
+  <si>
+    <t>14 Oct 2016</t>
+  </si>
+  <si>
+    <t>15 Oct 2016</t>
+  </si>
+  <si>
+    <t>16 Oct 2016</t>
+  </si>
+  <si>
+    <t>17 Oct 2016</t>
+  </si>
+  <si>
+    <t>18 Oct 2016</t>
+  </si>
+  <si>
+    <t>19 Oct 2016</t>
+  </si>
+  <si>
+    <t>20 Oct 2016</t>
+  </si>
+  <si>
+    <t>21 Oct 2016</t>
+  </si>
+  <si>
+    <t>22 Oct 2016</t>
+  </si>
+  <si>
+    <t>23 Oct 2016</t>
+  </si>
+  <si>
+    <t>24 Oct 2016</t>
+  </si>
+  <si>
+    <t>25 Oct 2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,12 +974,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -900,11 +1016,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -923,9 +1042,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$262</c:f>
+              <c:f>Ridership!$B$2:$B$293</c:f>
               <c:strCache>
-                <c:ptCount val="261"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>02 Jan 2016</c:v>
                 </c:pt>
@@ -1708,16 +1827,109 @@
                 </c:pt>
                 <c:pt idx="260">
                   <c:v>23 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>24 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>25 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>26 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>27 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>28 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>29 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>30 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>01 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>02 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>03 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>04 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>05 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>06 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>07 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>08 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>09 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>11 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>12 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>13 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>14 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>15 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>16 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>17 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>18 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>19 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>20 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>21 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>22 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>23 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>24 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>25 Oct 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$C$2:$C$262</c:f>
+              <c:f>Ridership!$C$2:$C$293</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="261"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -2343,19 +2555,19 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>185</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>181</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>193</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>173</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>179</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>69</c:v>
@@ -2364,146 +2576,240 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>141</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="216">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="217">
                   <c:v>213</c:v>
                 </c:pt>
-                <c:pt idx="217">
-                  <c:v>192</c:v>
-                </c:pt>
                 <c:pt idx="218">
-                  <c:v>211</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>253</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>101</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>73</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>178</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>180</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>199</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>221</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>203</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>84</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="229">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="238">
                   <c:v>173</c:v>
                 </c:pt>
-                <c:pt idx="230">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>223</c:v>
-                </c:pt>
                 <c:pt idx="239">
-                  <c:v>199</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>137</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="241">
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>80</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="243">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="246">
                   <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="247">
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>74</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>203</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>237</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>209</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>252</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>220</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="254">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="255">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="268">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="256">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="257">
+                <c:pt idx="269">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="291">
                   <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2523,9 +2829,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$262</c:f>
+              <c:f>Ridership!$B$2:$B$293</c:f>
               <c:strCache>
-                <c:ptCount val="261"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>02 Jan 2016</c:v>
                 </c:pt>
@@ -3308,21 +3614,114 @@
                 </c:pt>
                 <c:pt idx="260">
                   <c:v>23 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>24 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>25 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>26 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>27 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>28 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>29 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>30 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>01 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>02 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>03 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>04 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>05 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>06 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>07 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>08 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>09 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>11 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>12 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>13 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>14 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>15 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>16 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>17 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>18 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>19 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>20 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>21 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>22 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>23 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>24 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>25 Oct 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$D$2:$D$262</c:f>
+              <c:f>Ridership!$D$2:$D$293</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="261"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>19.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.56</c:v>
+                  <c:v>18.559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>32.71</c:v>
@@ -3337,10 +3736,10 @@
                   <c:v>41.83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.13</c:v>
+                  <c:v>39.130000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.31</c:v>
+                  <c:v>19.309999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>18.18</c:v>
@@ -3361,7 +3760,7 @@
                   <c:v>37.94</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.24</c:v>
+                  <c:v>19.239999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>18.11</c:v>
@@ -3379,7 +3778,7 @@
                   <c:v>42.59</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.17</c:v>
+                  <c:v>19.170000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>18.32</c:v>
@@ -3403,7 +3802,7 @@
                   <c:v>20.32</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18.6</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>46.25</c:v>
@@ -3424,7 +3823,7 @@
                   <c:v>20.85</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>20.33</c:v>
+                  <c:v>20.329999999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>49.48</c:v>
@@ -3535,7 +3934,7 @@
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>66.18</c:v>
+                  <c:v>66.180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>62.82</c:v>
@@ -3637,10 +4036,10 @@
                   <c:v>61.83</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>65.71</c:v>
+                  <c:v>65.709999999999994</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>70.15</c:v>
+                  <c:v>70.150000000000006</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>66.45</c:v>
@@ -3658,10 +4057,10 @@
                   <c:v>63.1</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>66.57</c:v>
+                  <c:v>66.569999999999993</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>71.35</c:v>
+                  <c:v>71.349999999999994</c:v>
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>67.91</c:v>
@@ -3700,7 +4099,7 @@
                   <c:v>66.36</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>68.54</c:v>
+                  <c:v>68.540000000000006</c:v>
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>73.33</c:v>
@@ -3709,7 +4108,7 @@
                   <c:v>70.53</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>66.85</c:v>
+                  <c:v>66.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>26.18</c:v>
@@ -3724,10 +4123,10 @@
                   <c:v>70.87</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>75.54</c:v>
+                  <c:v>75.540000000000006</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>71.54</c:v>
+                  <c:v>71.540000000000006</c:v>
                 </c:pt>
                 <c:pt idx="137">
                   <c:v>68.91</c:v>
@@ -3739,16 +4138,16 @@
                   <c:v>23.33</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>70.26</c:v>
+                  <c:v>70.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>72.74</c:v>
+                  <c:v>72.739999999999995</c:v>
                 </c:pt>
                 <c:pt idx="142">
                   <c:v>77.89</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>73.76</c:v>
+                  <c:v>73.760000000000005</c:v>
                 </c:pt>
                 <c:pt idx="144">
                   <c:v>69.63</c:v>
@@ -3766,7 +4165,7 @@
                   <c:v>79.56</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>75.21</c:v>
+                  <c:v>75.209999999999994</c:v>
                 </c:pt>
                 <c:pt idx="150">
                   <c:v>72.36</c:v>
@@ -3781,7 +4180,7 @@
                   <c:v>72.75</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>76.32</c:v>
+                  <c:v>76.319999999999993</c:v>
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>81.42</c:v>
@@ -3820,10 +4219,10 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>80.71</c:v>
+                  <c:v>80.709999999999994</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>81.49</c:v>
+                  <c:v>81.489999999999995</c:v>
                 </c:pt>
                 <c:pt idx="169">
                   <c:v>87.21</c:v>
@@ -3832,7 +4231,7 @@
                   <c:v>83.4</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>79.49</c:v>
+                  <c:v>79.489999999999995</c:v>
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>33.08</c:v>
@@ -3856,7 +4255,7 @@
                   <c:v>82.28</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>33.95</c:v>
+                  <c:v>33.950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="180">
                   <c:v>27.98</c:v>
@@ -3937,173 +4336,267 @@
                   <c:v>92.34</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>39.73</c:v>
+                  <c:v>39.729999999999997</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>32.98</c:v>
+                  <c:v>32.979999999999997</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>92.6</c:v>
+                  <c:v>92.49</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>93.8</c:v>
+                  <c:v>93.59</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>100.02</c:v>
+                  <c:v>100.35</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>97.58</c:v>
+                  <c:v>97.48</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>94.27</c:v>
+                  <c:v>94.38</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>40.37</c:v>
+                  <c:v>40.369999999999997</c:v>
                 </c:pt>
                 <c:pt idx="214">
                   <c:v>33.17</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>93.7</c:v>
+                  <c:v>93.55</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>96.18</c:v>
+                  <c:v>96.1</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>101.9</c:v>
+                  <c:v>102.65</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>99.9</c:v>
+                  <c:v>99.47</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>97.72</c:v>
+                  <c:v>97.74</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>41.66</c:v>
+                  <c:v>41.64</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>34</c:v>
+                  <c:v>33.979999999999997</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>95.58</c:v>
+                  <c:v>95.51</c:v>
                 </c:pt>
                 <c:pt idx="223">
                   <c:v>97.82</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>103.84</c:v>
+                  <c:v>104.14</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>102.32</c:v>
+                  <c:v>102.2</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>99.96</c:v>
+                  <c:v>99.94</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>42.54</c:v>
+                  <c:v>42.58</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>35.02</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>97.26</c:v>
+                  <c:v>97.46</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>99.46</c:v>
+                  <c:v>99.75</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>105.33</c:v>
+                  <c:v>105.84</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>104.45</c:v>
+                  <c:v>104.24</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>101.83</c:v>
+                  <c:v>101.79</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>47.67</c:v>
+                  <c:v>47.9</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>36.64</c:v>
+                  <c:v>36.659999999999997</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>100</c:v>
+                  <c:v>100.26</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>101.98</c:v>
+                  <c:v>102.6</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>107.6</c:v>
+                  <c:v>107.13</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>106.27</c:v>
+                  <c:v>105.94</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>102.55</c:v>
+                  <c:v>102.76</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>48.66</c:v>
+                  <c:v>48.88</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>37.49</c:v>
+                  <c:v>37.450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>103.98</c:v>
+                  <c:v>104.09</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>109.74</c:v>
+                  <c:v>109.64</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>108.45</c:v>
+                  <c:v>108.23</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>104.88</c:v>
+                  <c:v>104.9</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>49.37</c:v>
+                  <c:v>49.59</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>38.19</c:v>
+                  <c:v>38.130000000000003</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>102.15</c:v>
+                  <c:v>101.75</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>106.4</c:v>
+                  <c:v>106.89</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>111.57</c:v>
+                  <c:v>112.06</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>111.11</c:v>
+                  <c:v>110.3</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>107.14</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>49.58</c:v>
+                  <c:v>49.79</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>38.89</c:v>
+                  <c:v>38.81</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>104.49</c:v>
+                  <c:v>104.35</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>108.77</c:v>
+                  <c:v>108.89</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>113.45</c:v>
+                  <c:v>114.05</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>112.36</c:v>
+                  <c:v>111.76</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>110.4</c:v>
+                  <c:v>109.94</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>50.87</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>39.33</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>106.72</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>110.3</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>115.2</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>113.32</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>112.89</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>51.31</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>39.65</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>109.25</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>113.29</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>117.61</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>115.12</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>116.3</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>52.36</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>40.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>115.41</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>119.6</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>117.5</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>118.47</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>52.79</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>40.53</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>111.15</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>117.98</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>122.56</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>119.8</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>120.91</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>54.02</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>113.81</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>119.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4123,9 +4616,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$262</c:f>
+              <c:f>Ridership!$B$2:$B$293</c:f>
               <c:strCache>
-                <c:ptCount val="261"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>02 Jan 2016</c:v>
                 </c:pt>
@@ -4908,16 +5401,109 @@
                 </c:pt>
                 <c:pt idx="260">
                   <c:v>23 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>24 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>25 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>26 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>27 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>28 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>29 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>30 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>01 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>02 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>03 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>04 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>05 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>06 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>07 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>08 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>09 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>11 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>12 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>13 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>14 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>15 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>16 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>17 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>18 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>19 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>20 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>21 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>22 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>23 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>24 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>25 Oct 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$E$2:$E$262</c:f>
+              <c:f>Ridership!$E$2:$E$293</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="261"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>39.42</c:v>
                 </c:pt>
@@ -4934,19 +5520,19 @@
                   <c:v>40.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.23</c:v>
+                  <c:v>40.229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>40.39</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.55</c:v>
+                  <c:v>40.549999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>40.71</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.87</c:v>
+                  <c:v>40.869999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>41.03</c:v>
@@ -5384,7 +5970,7 @@
                   <c:v>64.77</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>64.93</c:v>
+                  <c:v>64.930000000000007</c:v>
                 </c:pt>
                 <c:pt idx="156">
                   <c:v>65.09</c:v>
@@ -5396,13 +5982,13 @@
                   <c:v>65.41</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>65.57</c:v>
+                  <c:v>65.569999999999993</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>65.74</c:v>
+                  <c:v>65.739999999999995</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>65.9</c:v>
+                  <c:v>65.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="162">
                   <c:v>66.06</c:v>
@@ -5414,7 +6000,7 @@
                   <c:v>66.38</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>66.54</c:v>
+                  <c:v>66.540000000000006</c:v>
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>66.7</c:v>
@@ -5429,10 +6015,10 @@
                   <c:v>67.19</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>67.35</c:v>
+                  <c:v>67.349999999999994</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>67.51</c:v>
+                  <c:v>67.510000000000005</c:v>
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>67.67</c:v>
@@ -5447,7 +6033,7 @@
                   <c:v>68.16</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>68.32</c:v>
+                  <c:v>68.319999999999993</c:v>
                 </c:pt>
                 <c:pt idx="177">
                   <c:v>68.48</c:v>
@@ -5459,10 +6045,10 @@
                   <c:v>68.8</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>68.96</c:v>
+                  <c:v>68.959999999999994</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>69.29</c:v>
+                  <c:v>69.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="182">
                   <c:v>69.45</c:v>
@@ -5474,13 +6060,13 @@
                   <c:v>69.77</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>69.93</c:v>
+                  <c:v>69.930000000000007</c:v>
                 </c:pt>
                 <c:pt idx="186">
                   <c:v>70.09</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>70.26</c:v>
+                  <c:v>70.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="188">
                   <c:v>70.42</c:v>
@@ -5489,10 +6075,10 @@
                   <c:v>70.58</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>70.74</c:v>
+                  <c:v>70.739999999999995</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>70.9</c:v>
+                  <c:v>70.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="192">
                   <c:v>71.06</c:v>
@@ -5507,7 +6093,7 @@
                   <c:v>71.55</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>71.71</c:v>
+                  <c:v>71.709999999999994</c:v>
                 </c:pt>
                 <c:pt idx="197">
                   <c:v>71.87</c:v>
@@ -5519,13 +6105,13 @@
                   <c:v>72.19</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>72.35</c:v>
+                  <c:v>72.349999999999994</c:v>
                 </c:pt>
                 <c:pt idx="201">
                   <c:v>72.52</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>72.68</c:v>
+                  <c:v>72.680000000000007</c:v>
                 </c:pt>
                 <c:pt idx="203">
                   <c:v>72.84</c:v>
@@ -5537,13 +6123,13 @@
                   <c:v>73.16</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>73.32</c:v>
+                  <c:v>73.319999999999993</c:v>
                 </c:pt>
                 <c:pt idx="207">
                   <c:v>73.48</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>73.65</c:v>
+                  <c:v>73.650000000000006</c:v>
                 </c:pt>
                 <c:pt idx="209">
                   <c:v>73.81</c:v>
@@ -5555,7 +6141,7 @@
                   <c:v>74.13</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>74.29</c:v>
+                  <c:v>74.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>74.45</c:v>
@@ -5570,10 +6156,10 @@
                   <c:v>74.94</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>75.1</c:v>
+                  <c:v>75.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>75.26</c:v>
+                  <c:v>75.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>75.42</c:v>
@@ -5588,7 +6174,7 @@
                   <c:v>75.91</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>76.07</c:v>
+                  <c:v>76.069999999999993</c:v>
                 </c:pt>
                 <c:pt idx="224">
                   <c:v>76.23</c:v>
@@ -5600,13 +6186,13 @@
                   <c:v>76.55</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>76.71</c:v>
+                  <c:v>76.709999999999994</c:v>
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>76.88</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>77.04</c:v>
+                  <c:v>77.040000000000006</c:v>
                 </c:pt>
                 <c:pt idx="230">
                   <c:v>77.2</c:v>
@@ -5618,13 +6204,13 @@
                   <c:v>77.52</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>77.68</c:v>
+                  <c:v>77.680000000000007</c:v>
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>77.84</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>78.01</c:v>
+                  <c:v>78.010000000000005</c:v>
                 </c:pt>
                 <c:pt idx="236">
                   <c:v>78.17</c:v>
@@ -5633,10 +6219,10 @@
                   <c:v>78.33</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>78.49</c:v>
+                  <c:v>78.489999999999995</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>78.65</c:v>
+                  <c:v>78.650000000000006</c:v>
                 </c:pt>
                 <c:pt idx="240">
                   <c:v>78.81</c:v>
@@ -5648,7 +6234,7 @@
                   <c:v>79.14</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>79.46</c:v>
+                  <c:v>79.459999999999994</c:v>
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>79.62</c:v>
@@ -5660,13 +6246,13 @@
                   <c:v>79.94</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>80.1</c:v>
+                  <c:v>80.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="248">
                   <c:v>80.27</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>80.43</c:v>
+                  <c:v>80.430000000000007</c:v>
                 </c:pt>
                 <c:pt idx="250">
                   <c:v>80.59</c:v>
@@ -5678,13 +6264,13 @@
                   <c:v>80.91</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>81.07</c:v>
+                  <c:v>81.069999999999993</c:v>
                 </c:pt>
                 <c:pt idx="254">
                   <c:v>81.23</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>81.4</c:v>
+                  <c:v>81.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="256">
                   <c:v>81.56</c:v>
@@ -5700,20 +6286,123 @@
                 </c:pt>
                 <c:pt idx="260">
                   <c:v>82.2</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>82.36</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>82.53</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>82.69</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>82.85</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>83.01</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>83.17</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>83.33</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>83.49</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>83.66</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>83.82</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>83.98</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>84.14</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>84.3</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>84.46</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>84.62</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>84.79</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>85.11</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>85.27</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>85.43</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>85.59</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>85.76</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>85.92</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>86.08</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>86.24</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>86.56</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>86.72</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>86.89</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>87.05</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>87.21</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>87.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="50010001"/>
-        <c:axId val="50010002"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="314516576"/>
+        <c:axId val="314515792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50010001"/>
+        <c:axId val="314516576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5732,19 +6421,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010002"/>
+        <c:crossAx val="314515792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50010002"/>
+        <c:axId val="314515792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5764,10 +6459,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010001"/>
+        <c:crossAx val="314516576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5775,8 +6473,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5792,13 +6493,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>295</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>278</xdr:row>
+      <xdr:row>309</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5864,7 +6565,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5896,9 +6597,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5930,6 +6632,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6105,21 +6808,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E262"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E293"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="G293" sqref="G293"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="1" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6136,7 +6837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6153,7 +6854,7 @@
         <v>39.42</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -6164,13 +6865,13 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>18.56</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="E3">
         <v>39.58</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -6187,7 +6888,7 @@
         <v>39.74</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -6204,7 +6905,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -6221,7 +6922,7 @@
         <v>40.07</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -6235,10 +6936,10 @@
         <v>41.83</v>
       </c>
       <c r="E7">
-        <v>40.23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>40.229999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -6249,13 +6950,13 @@
         <v>106</v>
       </c>
       <c r="D8">
-        <v>39.13</v>
+        <v>39.130000000000003</v>
       </c>
       <c r="E8">
         <v>40.39</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -6266,13 +6967,13 @@
         <v>22</v>
       </c>
       <c r="D9">
-        <v>19.31</v>
+        <v>19.309999999999999</v>
       </c>
       <c r="E9">
-        <v>40.55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>40.549999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -6289,7 +6990,7 @@
         <v>40.71</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6303,10 +7004,10 @@
         <v>37.06</v>
       </c>
       <c r="E11">
-        <v>40.87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>40.869999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6323,7 +7024,7 @@
         <v>41.03</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -6340,7 +7041,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -6357,7 +7058,7 @@
         <v>41.36</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -6374,7 +7075,7 @@
         <v>41.52</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -6385,13 +7086,13 @@
         <v>18</v>
       </c>
       <c r="D16">
-        <v>19.24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="E16">
         <v>41.68</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -6408,7 +7109,7 @@
         <v>41.84</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -6425,7 +7126,7 @@
         <v>42.16</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -6442,7 +7143,7 @@
         <v>42.33</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -6459,7 +7160,7 @@
         <v>42.49</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -6476,7 +7177,7 @@
         <v>42.65</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -6487,13 +7188,13 @@
         <v>18</v>
       </c>
       <c r="D22">
-        <v>19.17</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="E22">
         <v>42.81</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -6510,7 +7211,7 @@
         <v>42.97</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -6527,7 +7228,7 @@
         <v>43.13</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -6544,7 +7245,7 @@
         <v>43.29</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -6561,7 +7262,7 @@
         <v>43.46</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -6578,7 +7279,7 @@
         <v>43.62</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -6595,7 +7296,7 @@
         <v>43.78</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -6612,7 +7313,7 @@
         <v>43.94</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -6623,13 +7324,13 @@
         <v>24</v>
       </c>
       <c r="D30">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E30">
         <v>44.1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -6646,7 +7347,7 @@
         <v>44.26</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -6663,7 +7364,7 @@
         <v>44.42</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -6680,7 +7381,7 @@
         <v>44.59</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -6697,7 +7398,7 @@
         <v>44.75</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -6714,7 +7415,7 @@
         <v>44.91</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -6731,7 +7432,7 @@
         <v>45.07</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -6742,13 +7443,13 @@
         <v>55</v>
       </c>
       <c r="D37">
-        <v>20.33</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="E37">
         <v>45.23</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -6765,7 +7466,7 @@
         <v>45.39</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -6782,7 +7483,7 @@
         <v>45.55</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -6799,7 +7500,7 @@
         <v>45.72</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -6816,7 +7517,7 @@
         <v>45.88</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -6833,7 +7534,7 @@
         <v>46.04</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -6850,7 +7551,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -6867,7 +7568,7 @@
         <v>46.36</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -6884,7 +7585,7 @@
         <v>46.68</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -6901,7 +7602,7 @@
         <v>46.85</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -6918,7 +7619,7 @@
         <v>47.01</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -6935,7 +7636,7 @@
         <v>47.17</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -6952,7 +7653,7 @@
         <v>47.33</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -6969,7 +7670,7 @@
         <v>47.49</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -6986,7 +7687,7 @@
         <v>47.65</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -7003,7 +7704,7 @@
         <v>47.81</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -7020,7 +7721,7 @@
         <v>47.98</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -7037,7 +7738,7 @@
         <v>48.14</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -7054,7 +7755,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -7071,7 +7772,7 @@
         <v>48.46</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -7088,7 +7789,7 @@
         <v>48.62</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -7105,7 +7806,7 @@
         <v>48.78</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -7122,7 +7823,7 @@
         <v>48.94</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -7139,7 +7840,7 @@
         <v>49.11</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -7156,7 +7857,7 @@
         <v>49.27</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -7173,7 +7874,7 @@
         <v>49.43</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -7190,7 +7891,7 @@
         <v>49.59</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -7207,7 +7908,7 @@
         <v>49.75</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -7224,7 +7925,7 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -7241,7 +7942,7 @@
         <v>50.08</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -7258,7 +7959,7 @@
         <v>50.24</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -7275,7 +7976,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -7292,7 +7993,7 @@
         <v>50.56</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -7309,7 +8010,7 @@
         <v>50.72</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -7326,7 +8027,7 @@
         <v>50.88</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -7343,7 +8044,7 @@
         <v>51.04</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -7360,7 +8061,7 @@
         <v>51.21</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -7371,13 +8072,13 @@
         <v>53</v>
       </c>
       <c r="D74">
-        <v>66.18</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="E74">
         <v>51.37</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -7394,7 +8095,7 @@
         <v>51.53</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -7411,7 +8112,7 @@
         <v>51.69</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -7428,7 +8129,7 @@
         <v>51.85</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -7445,7 +8146,7 @@
         <v>52.01</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -7462,7 +8163,7 @@
         <v>52.17</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -7479,7 +8180,7 @@
         <v>52.34</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -7496,7 +8197,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -7513,7 +8214,7 @@
         <v>52.66</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -7530,7 +8231,7 @@
         <v>52.82</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -7547,7 +8248,7 @@
         <v>52.98</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -7564,7 +8265,7 @@
         <v>53.14</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -7581,7 +8282,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -7598,7 +8299,7 @@
         <v>53.47</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -7615,7 +8316,7 @@
         <v>53.63</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -7632,7 +8333,7 @@
         <v>53.79</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -7649,7 +8350,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -7666,7 +8367,7 @@
         <v>54.11</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -7683,7 +8384,7 @@
         <v>54.27</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -7700,7 +8401,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -7717,7 +8418,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -7734,7 +8435,7 @@
         <v>54.76</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -7751,7 +8452,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -7768,7 +8469,7 @@
         <v>55.08</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -7785,7 +8486,7 @@
         <v>55.24</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -7802,7 +8503,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -7819,7 +8520,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -7836,7 +8537,7 @@
         <v>55.73</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -7853,7 +8554,7 @@
         <v>55.89</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -7870,7 +8571,7 @@
         <v>56.05</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -7887,7 +8588,7 @@
         <v>56.21</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -7904,7 +8605,7 @@
         <v>56.37</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -7921,7 +8622,7 @@
         <v>56.53</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -7938,7 +8639,7 @@
         <v>56.69</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -7949,13 +8650,13 @@
         <v>73</v>
       </c>
       <c r="D108">
-        <v>65.71</v>
+        <v>65.709999999999994</v>
       </c>
       <c r="E108">
         <v>56.86</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -7966,13 +8667,13 @@
         <v>114</v>
       </c>
       <c r="D109">
-        <v>70.15</v>
+        <v>70.150000000000006</v>
       </c>
       <c r="E109">
         <v>57.02</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>15</v>
       </c>
@@ -7989,7 +8690,7 @@
         <v>57.18</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -8006,7 +8707,7 @@
         <v>57.34</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -8023,7 +8724,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -8040,7 +8741,7 @@
         <v>57.66</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -8057,7 +8758,7 @@
         <v>57.82</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -8068,13 +8769,13 @@
         <v>96</v>
       </c>
       <c r="D115">
-        <v>66.57</v>
+        <v>66.569999999999993</v>
       </c>
       <c r="E115">
         <v>57.99</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -8085,13 +8786,13 @@
         <v>111</v>
       </c>
       <c r="D116">
-        <v>71.35</v>
+        <v>71.349999999999994</v>
       </c>
       <c r="E116">
         <v>58.15</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -8108,7 +8809,7 @@
         <v>58.31</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -8125,7 +8826,7 @@
         <v>58.47</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -8142,7 +8843,7 @@
         <v>58.63</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -8159,7 +8860,7 @@
         <v>58.79</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -8176,7 +8877,7 @@
         <v>58.95</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -8193,7 +8894,7 @@
         <v>59.12</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -8210,7 +8911,7 @@
         <v>59.28</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -8227,7 +8928,7 @@
         <v>59.44</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -8244,7 +8945,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -8261,7 +8962,7 @@
         <v>59.76</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -8278,7 +8979,7 @@
         <v>59.92</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -8295,7 +8996,7 @@
         <v>60.08</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -8306,13 +9007,13 @@
         <v>95</v>
       </c>
       <c r="D129">
-        <v>68.54</v>
+        <v>68.540000000000006</v>
       </c>
       <c r="E129">
         <v>60.25</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -8329,7 +9030,7 @@
         <v>60.41</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -8346,7 +9047,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -8357,13 +9058,13 @@
         <v>143</v>
       </c>
       <c r="D132">
-        <v>66.85</v>
+        <v>66.849999999999994</v>
       </c>
       <c r="E132">
         <v>60.73</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -8380,7 +9081,7 @@
         <v>60.89</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -8397,7 +9098,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -8414,7 +9115,7 @@
         <v>61.21</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -8431,7 +9132,7 @@
         <v>61.38</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -8442,13 +9143,13 @@
         <v>155</v>
       </c>
       <c r="D137">
-        <v>75.54</v>
+        <v>75.540000000000006</v>
       </c>
       <c r="E137">
         <v>61.54</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>15</v>
       </c>
@@ -8459,13 +9160,13 @@
         <v>108</v>
       </c>
       <c r="D138">
-        <v>71.54</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="E138">
         <v>61.7</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -8482,7 +9183,7 @@
         <v>61.86</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -8499,7 +9200,7 @@
         <v>62.02</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -8516,7 +9217,7 @@
         <v>62.18</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -8527,13 +9228,13 @@
         <v>149</v>
       </c>
       <c r="D142">
-        <v>70.26</v>
+        <v>70.260000000000005</v>
       </c>
       <c r="E142">
         <v>62.35</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -8544,13 +9245,13 @@
         <v>144</v>
       </c>
       <c r="D143">
-        <v>72.74</v>
+        <v>72.739999999999995</v>
       </c>
       <c r="E143">
         <v>62.51</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -8567,7 +9268,7 @@
         <v>62.67</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -8578,13 +9279,13 @@
         <v>156</v>
       </c>
       <c r="D145">
-        <v>73.76</v>
+        <v>73.760000000000005</v>
       </c>
       <c r="E145">
         <v>62.83</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -8601,7 +9302,7 @@
         <v>62.99</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -8618,7 +9319,7 @@
         <v>63.15</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -8635,7 +9336,7 @@
         <v>63.31</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -8652,7 +9353,7 @@
         <v>63.64</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>13</v>
       </c>
@@ -8669,7 +9370,7 @@
         <v>63.8</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -8680,13 +9381,13 @@
         <v>130</v>
       </c>
       <c r="D151">
-        <v>75.21</v>
+        <v>75.209999999999994</v>
       </c>
       <c r="E151">
         <v>63.96</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -8703,7 +9404,7 @@
         <v>64.12</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -8720,7 +9421,7 @@
         <v>64.28</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -8737,7 +9438,7 @@
         <v>64.44</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -8754,7 +9455,7 @@
         <v>64.61</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -8765,13 +9466,13 @@
         <v>144</v>
       </c>
       <c r="D156">
-        <v>76.32</v>
+        <v>76.319999999999993</v>
       </c>
       <c r="E156">
         <v>64.77</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -8785,10 +9486,10 @@
         <v>81.42</v>
       </c>
       <c r="E157">
-        <v>64.93</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>64.930000000000007</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>15</v>
       </c>
@@ -8805,7 +9506,7 @@
         <v>65.09</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -8822,7 +9523,7 @@
         <v>65.25</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -8839,7 +9540,7 @@
         <v>65.41</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -8853,10 +9554,10 @@
         <v>26.21</v>
       </c>
       <c r="E161">
-        <v>65.57</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>65.569999999999993</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>9</v>
       </c>
@@ -8870,10 +9571,10 @@
         <v>77.05</v>
       </c>
       <c r="E162">
-        <v>65.74</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>65.739999999999995</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -8887,10 +9588,10 @@
         <v>78.64</v>
       </c>
       <c r="E163">
-        <v>65.9</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -8907,7 +9608,7 @@
         <v>66.06</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>15</v>
       </c>
@@ -8924,7 +9625,7 @@
         <v>66.22</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>17</v>
       </c>
@@ -8941,7 +9642,7 @@
         <v>66.38</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -8955,10 +9656,10 @@
         <v>32.03</v>
       </c>
       <c r="E167">
-        <v>66.54</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>66.540000000000006</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -8975,7 +9676,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -8986,13 +9687,13 @@
         <v>216</v>
       </c>
       <c r="D169">
-        <v>80.71</v>
+        <v>80.709999999999994</v>
       </c>
       <c r="E169">
         <v>66.87</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -9003,13 +9704,13 @@
         <v>201</v>
       </c>
       <c r="D170">
-        <v>81.49</v>
+        <v>81.489999999999995</v>
       </c>
       <c r="E170">
         <v>67.03</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -9026,7 +9727,7 @@
         <v>67.19</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>15</v>
       </c>
@@ -9040,10 +9741,10 @@
         <v>83.4</v>
       </c>
       <c r="E172">
-        <v>67.35</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>67.349999999999994</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>17</v>
       </c>
@@ -9054,13 +9755,13 @@
         <v>136</v>
       </c>
       <c r="D173">
-        <v>79.49</v>
+        <v>79.489999999999995</v>
       </c>
       <c r="E173">
-        <v>67.51</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>67.510000000000005</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -9077,7 +9778,7 @@
         <v>67.67</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -9094,7 +9795,7 @@
         <v>67.83</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -9111,7 +9812,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -9128,7 +9829,7 @@
         <v>68.16</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>13</v>
       </c>
@@ -9142,10 +9843,10 @@
         <v>89.98</v>
       </c>
       <c r="E178">
-        <v>68.32</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>68.319999999999993</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>15</v>
       </c>
@@ -9162,7 +9863,7 @@
         <v>68.48</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>17</v>
       </c>
@@ -9179,7 +9880,7 @@
         <v>68.64</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -9190,13 +9891,13 @@
         <v>69</v>
       </c>
       <c r="D181">
-        <v>33.95</v>
+        <v>33.950000000000003</v>
       </c>
       <c r="E181">
         <v>68.8</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -9210,10 +9911,10 @@
         <v>27.98</v>
       </c>
       <c r="E182">
-        <v>68.96</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>68.959999999999994</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -9227,10 +9928,10 @@
         <v>85.44</v>
       </c>
       <c r="E183">
-        <v>69.29</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>69.290000000000006</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>13</v>
       </c>
@@ -9247,7 +9948,7 @@
         <v>69.45</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>15</v>
       </c>
@@ -9264,7 +9965,7 @@
         <v>69.61</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -9281,7 +9982,7 @@
         <v>69.77</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -9295,10 +9996,10 @@
         <v>35.4</v>
       </c>
       <c r="E187">
-        <v>69.93</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>69.930000000000007</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -9315,7 +10016,7 @@
         <v>70.09</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -9329,10 +10030,10 @@
         <v>86.53</v>
       </c>
       <c r="E189">
-        <v>70.26</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>70.260000000000005</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -9349,7 +10050,7 @@
         <v>70.42</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>13</v>
       </c>
@@ -9366,7 +10067,7 @@
         <v>70.58</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>15</v>
       </c>
@@ -9380,10 +10081,10 @@
         <v>91.8</v>
       </c>
       <c r="E192">
-        <v>70.74</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>70.739999999999995</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -9397,10 +10098,10 @@
         <v>85.52</v>
       </c>
       <c r="E193">
-        <v>70.9</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -9417,7 +10118,7 @@
         <v>71.06</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -9434,7 +10135,7 @@
         <v>71.22</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>9</v>
       </c>
@@ -9451,7 +10152,7 @@
         <v>71.39</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>11</v>
       </c>
@@ -9468,7 +10169,7 @@
         <v>71.55</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -9482,10 +10183,10 @@
         <v>95.63</v>
       </c>
       <c r="E198">
-        <v>71.71</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>71.709999999999994</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>15</v>
       </c>
@@ -9502,7 +10203,7 @@
         <v>71.87</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>17</v>
       </c>
@@ -9519,7 +10220,7 @@
         <v>72.03</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -9536,7 +10237,7 @@
         <v>72.19</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -9550,10 +10251,10 @@
         <v>31.49</v>
       </c>
       <c r="E202">
-        <v>72.35</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>72.349999999999994</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>9</v>
       </c>
@@ -9570,7 +10271,7 @@
         <v>72.52</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -9584,10 +10285,10 @@
         <v>91.98</v>
       </c>
       <c r="E204">
-        <v>72.68</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>72.680000000000007</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>13</v>
       </c>
@@ -9604,7 +10305,7 @@
         <v>72.84</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -9621,7 +10322,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>17</v>
       </c>
@@ -9638,7 +10339,7 @@
         <v>73.16</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>5</v>
       </c>
@@ -9649,13 +10350,13 @@
         <v>122</v>
       </c>
       <c r="D208">
-        <v>39.73</v>
+        <v>39.729999999999997</v>
       </c>
       <c r="E208">
-        <v>73.32</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>73.319999999999993</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -9666,13 +10367,13 @@
         <v>100</v>
       </c>
       <c r="D209">
-        <v>32.98</v>
+        <v>32.979999999999997</v>
       </c>
       <c r="E209">
         <v>73.48</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>9</v>
       </c>
@@ -9680,16 +10381,16 @@
         <v>220</v>
       </c>
       <c r="C210">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D210">
-        <v>92.6</v>
+        <v>92.49</v>
       </c>
       <c r="E210">
-        <v>73.65</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>73.650000000000006</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>11</v>
       </c>
@@ -9697,16 +10398,16 @@
         <v>221</v>
       </c>
       <c r="C211">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D211">
-        <v>93.8</v>
+        <v>93.59</v>
       </c>
       <c r="E211">
         <v>73.81</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>13</v>
       </c>
@@ -9714,16 +10415,16 @@
         <v>222</v>
       </c>
       <c r="C212">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D212">
-        <v>100.02</v>
+        <v>100.35</v>
       </c>
       <c r="E212">
         <v>73.97</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>15</v>
       </c>
@@ -9731,16 +10432,16 @@
         <v>223</v>
       </c>
       <c r="C213">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D213">
-        <v>97.58</v>
+        <v>97.48</v>
       </c>
       <c r="E213">
         <v>74.13</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>17</v>
       </c>
@@ -9748,16 +10449,16 @@
         <v>224</v>
       </c>
       <c r="C214">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D214">
-        <v>94.27</v>
+        <v>94.38</v>
       </c>
       <c r="E214">
-        <v>74.29</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <v>74.290000000000006</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>5</v>
       </c>
@@ -9768,13 +10469,13 @@
         <v>69</v>
       </c>
       <c r="D215">
-        <v>40.37</v>
+        <v>40.369999999999997</v>
       </c>
       <c r="E215">
         <v>74.45</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -9791,7 +10492,7 @@
         <v>74.62</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -9799,16 +10500,16 @@
         <v>227</v>
       </c>
       <c r="C217">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D217">
-        <v>93.7</v>
+        <v>93.55</v>
       </c>
       <c r="E217">
         <v>74.78</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -9816,16 +10517,16 @@
         <v>228</v>
       </c>
       <c r="C218">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D218">
-        <v>96.18</v>
+        <v>96.1</v>
       </c>
       <c r="E218">
         <v>74.94</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>13</v>
       </c>
@@ -9833,16 +10534,16 @@
         <v>229</v>
       </c>
       <c r="C219">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="D219">
-        <v>101.9</v>
+        <v>102.65</v>
       </c>
       <c r="E219">
-        <v>75.1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>15</v>
       </c>
@@ -9850,16 +10551,16 @@
         <v>230</v>
       </c>
       <c r="C220">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D220">
-        <v>99.9</v>
+        <v>99.47</v>
       </c>
       <c r="E220">
-        <v>75.26</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <v>75.260000000000005</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -9867,16 +10568,16 @@
         <v>231</v>
       </c>
       <c r="C221">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D221">
-        <v>97.72</v>
+        <v>97.74</v>
       </c>
       <c r="E221">
         <v>75.42</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -9884,16 +10585,16 @@
         <v>232</v>
       </c>
       <c r="C222">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D222">
-        <v>41.66</v>
+        <v>41.64</v>
       </c>
       <c r="E222">
         <v>75.58</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -9901,16 +10602,16 @@
         <v>233</v>
       </c>
       <c r="C223">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D223">
-        <v>34</v>
+        <v>33.979999999999997</v>
       </c>
       <c r="E223">
         <v>75.75</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>9</v>
       </c>
@@ -9918,16 +10619,16 @@
         <v>234</v>
       </c>
       <c r="C224">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D224">
-        <v>95.58</v>
+        <v>95.51</v>
       </c>
       <c r="E224">
         <v>75.91</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -9935,16 +10636,16 @@
         <v>235</v>
       </c>
       <c r="C225">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D225">
         <v>97.82</v>
       </c>
       <c r="E225">
-        <v>76.07</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>76.069999999999993</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>13</v>
       </c>
@@ -9952,16 +10653,16 @@
         <v>236</v>
       </c>
       <c r="C226">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="D226">
-        <v>103.84</v>
+        <v>104.14</v>
       </c>
       <c r="E226">
         <v>76.23</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>15</v>
       </c>
@@ -9969,16 +10670,16 @@
         <v>237</v>
       </c>
       <c r="C227">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D227">
-        <v>102.32</v>
+        <v>102.2</v>
       </c>
       <c r="E227">
         <v>76.39</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>17</v>
       </c>
@@ -9986,16 +10687,16 @@
         <v>238</v>
       </c>
       <c r="C228">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D228">
-        <v>99.96</v>
+        <v>99.94</v>
       </c>
       <c r="E228">
         <v>76.55</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>5</v>
       </c>
@@ -10003,16 +10704,16 @@
         <v>239</v>
       </c>
       <c r="C229">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D229">
-        <v>42.54</v>
+        <v>42.58</v>
       </c>
       <c r="E229">
-        <v>76.71</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>76.709999999999994</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>7</v>
       </c>
@@ -10023,13 +10724,13 @@
         <v>84</v>
       </c>
       <c r="D230">
-        <v>35.02</v>
+        <v>35</v>
       </c>
       <c r="E230">
         <v>76.88</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -10037,16 +10738,16 @@
         <v>241</v>
       </c>
       <c r="C231">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D231">
-        <v>97.26</v>
+        <v>97.46</v>
       </c>
       <c r="E231">
-        <v>77.04</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>77.040000000000006</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>11</v>
       </c>
@@ -10054,16 +10755,16 @@
         <v>242</v>
       </c>
       <c r="C232">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="D232">
-        <v>99.46</v>
+        <v>99.75</v>
       </c>
       <c r="E232">
         <v>77.2</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>13</v>
       </c>
@@ -10071,16 +10772,16 @@
         <v>243</v>
       </c>
       <c r="C233">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D233">
-        <v>105.33</v>
+        <v>105.84</v>
       </c>
       <c r="E233">
         <v>77.36</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>15</v>
       </c>
@@ -10088,16 +10789,16 @@
         <v>244</v>
       </c>
       <c r="C234">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D234">
-        <v>104.45</v>
+        <v>104.24</v>
       </c>
       <c r="E234">
         <v>77.52</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>17</v>
       </c>
@@ -10105,16 +10806,16 @@
         <v>245</v>
       </c>
       <c r="C235">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D235">
-        <v>101.83</v>
+        <v>101.79</v>
       </c>
       <c r="E235">
-        <v>77.68</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>77.680000000000007</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -10122,16 +10823,16 @@
         <v>246</v>
       </c>
       <c r="C236">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D236">
-        <v>47.67</v>
+        <v>47.9</v>
       </c>
       <c r="E236">
         <v>77.84</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>7</v>
       </c>
@@ -10139,16 +10840,16 @@
         <v>247</v>
       </c>
       <c r="C237">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D237">
-        <v>36.64</v>
+        <v>36.659999999999997</v>
       </c>
       <c r="E237">
-        <v>78.01</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>78.010000000000005</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>9</v>
       </c>
@@ -10156,16 +10857,16 @@
         <v>248</v>
       </c>
       <c r="C238">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D238">
-        <v>100</v>
+        <v>100.26</v>
       </c>
       <c r="E238">
         <v>78.17</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -10173,16 +10874,16 @@
         <v>249</v>
       </c>
       <c r="C239">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="D239">
-        <v>101.98</v>
+        <v>102.6</v>
       </c>
       <c r="E239">
         <v>78.33</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>13</v>
       </c>
@@ -10190,16 +10891,16 @@
         <v>250</v>
       </c>
       <c r="C240">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="D240">
-        <v>107.6</v>
+        <v>107.13</v>
       </c>
       <c r="E240">
-        <v>78.49</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+        <v>78.489999999999995</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>15</v>
       </c>
@@ -10207,16 +10908,16 @@
         <v>251</v>
       </c>
       <c r="C241">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D241">
-        <v>106.27</v>
+        <v>105.94</v>
       </c>
       <c r="E241">
-        <v>78.65</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>78.650000000000006</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>17</v>
       </c>
@@ -10224,16 +10925,16 @@
         <v>252</v>
       </c>
       <c r="C242">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D242">
-        <v>102.55</v>
+        <v>102.76</v>
       </c>
       <c r="E242">
         <v>78.81</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -10244,13 +10945,13 @@
         <v>97</v>
       </c>
       <c r="D243">
-        <v>48.66</v>
+        <v>48.88</v>
       </c>
       <c r="E243">
         <v>78.97</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -10258,16 +10959,16 @@
         <v>254</v>
       </c>
       <c r="C244">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D244">
-        <v>37.49</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="E244">
         <v>79.14</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -10275,16 +10976,16 @@
         <v>255</v>
       </c>
       <c r="C245">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="D245">
-        <v>103.98</v>
+        <v>104.09</v>
       </c>
       <c r="E245">
-        <v>79.46</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+        <v>79.459999999999994</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>13</v>
       </c>
@@ -10292,16 +10993,16 @@
         <v>256</v>
       </c>
       <c r="C246">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="D246">
-        <v>109.74</v>
+        <v>109.64</v>
       </c>
       <c r="E246">
         <v>79.62</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>15</v>
       </c>
@@ -10309,16 +11010,16 @@
         <v>257</v>
       </c>
       <c r="C247">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D247">
-        <v>108.45</v>
+        <v>108.23</v>
       </c>
       <c r="E247">
         <v>79.78</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -10326,16 +11027,16 @@
         <v>258</v>
       </c>
       <c r="C248">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D248">
-        <v>104.88</v>
+        <v>104.9</v>
       </c>
       <c r="E248">
         <v>79.94</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -10346,13 +11047,13 @@
         <v>85</v>
       </c>
       <c r="D249">
-        <v>49.37</v>
+        <v>49.59</v>
       </c>
       <c r="E249">
-        <v>80.1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -10360,16 +11061,16 @@
         <v>260</v>
       </c>
       <c r="C250">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D250">
-        <v>38.19</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="E250">
         <v>80.27</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>9</v>
       </c>
@@ -10377,16 +11078,16 @@
         <v>261</v>
       </c>
       <c r="C251">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="D251">
-        <v>102.15</v>
+        <v>101.75</v>
       </c>
       <c r="E251">
-        <v>80.43</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+        <v>80.430000000000007</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>11</v>
       </c>
@@ -10394,16 +11095,16 @@
         <v>262</v>
       </c>
       <c r="C252">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="D252">
-        <v>106.4</v>
+        <v>106.89</v>
       </c>
       <c r="E252">
         <v>80.59</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>13</v>
       </c>
@@ -10411,16 +11112,16 @@
         <v>263</v>
       </c>
       <c r="C253">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="D253">
-        <v>111.57</v>
+        <v>112.06</v>
       </c>
       <c r="E253">
         <v>80.75</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>15</v>
       </c>
@@ -10428,16 +11129,16 @@
         <v>264</v>
       </c>
       <c r="C254">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="D254">
-        <v>111.11</v>
+        <v>110.3</v>
       </c>
       <c r="E254">
         <v>80.91</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>17</v>
       </c>
@@ -10445,16 +11146,16 @@
         <v>265</v>
       </c>
       <c r="C255">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D255">
-        <v>107.14</v>
+        <v>107</v>
       </c>
       <c r="E255">
-        <v>81.07</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+        <v>81.069999999999993</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>5</v>
       </c>
@@ -10465,13 +11166,13 @@
         <v>60</v>
       </c>
       <c r="D256">
-        <v>49.58</v>
+        <v>49.79</v>
       </c>
       <c r="E256">
         <v>81.23</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -10479,16 +11180,16 @@
         <v>267</v>
       </c>
       <c r="C257">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D257">
-        <v>38.89</v>
+        <v>38.81</v>
       </c>
       <c r="E257">
-        <v>81.4</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -10496,16 +11197,16 @@
         <v>268</v>
       </c>
       <c r="C258">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D258">
-        <v>104.49</v>
+        <v>104.35</v>
       </c>
       <c r="E258">
         <v>81.56</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>11</v>
       </c>
@@ -10513,16 +11214,16 @@
         <v>269</v>
       </c>
       <c r="C259">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="D259">
-        <v>108.77</v>
+        <v>108.89</v>
       </c>
       <c r="E259">
         <v>81.72</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>13</v>
       </c>
@@ -10530,16 +11231,16 @@
         <v>270</v>
       </c>
       <c r="C260">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D260">
-        <v>113.45</v>
+        <v>114.05</v>
       </c>
       <c r="E260">
         <v>81.88</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>15</v>
       </c>
@@ -10547,16 +11248,16 @@
         <v>271</v>
       </c>
       <c r="C261">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D261">
-        <v>112.36</v>
+        <v>111.76</v>
       </c>
       <c r="E261">
         <v>82.04</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>17</v>
       </c>
@@ -10564,13 +11265,540 @@
         <v>272</v>
       </c>
       <c r="C262">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="D262">
-        <v>110.4</v>
+        <v>109.94</v>
       </c>
       <c r="E262">
         <v>82.2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263" t="s">
+        <v>273</v>
+      </c>
+      <c r="C263">
+        <v>107</v>
+      </c>
+      <c r="D263">
+        <v>50.87</v>
+      </c>
+      <c r="E263">
+        <v>82.36</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>7</v>
+      </c>
+      <c r="B264" t="s">
+        <v>274</v>
+      </c>
+      <c r="C264">
+        <v>67</v>
+      </c>
+      <c r="D264">
+        <v>39.33</v>
+      </c>
+      <c r="E264">
+        <v>82.53</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>9</v>
+      </c>
+      <c r="B265" t="s">
+        <v>275</v>
+      </c>
+      <c r="C265">
+        <v>223</v>
+      </c>
+      <c r="D265">
+        <v>106.72</v>
+      </c>
+      <c r="E265">
+        <v>82.69</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>11</v>
+      </c>
+      <c r="B266" t="s">
+        <v>276</v>
+      </c>
+      <c r="C266">
+        <v>189</v>
+      </c>
+      <c r="D266">
+        <v>110.3</v>
+      </c>
+      <c r="E266">
+        <v>82.85</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>13</v>
+      </c>
+      <c r="B267" t="s">
+        <v>277</v>
+      </c>
+      <c r="C267">
+        <v>178</v>
+      </c>
+      <c r="D267">
+        <v>115.2</v>
+      </c>
+      <c r="E267">
+        <v>83.01</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>15</v>
+      </c>
+      <c r="B268" t="s">
+        <v>278</v>
+      </c>
+      <c r="C268">
+        <v>199</v>
+      </c>
+      <c r="D268">
+        <v>113.32</v>
+      </c>
+      <c r="E268">
+        <v>83.17</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>17</v>
+      </c>
+      <c r="B269" t="s">
+        <v>279</v>
+      </c>
+      <c r="C269">
+        <v>266</v>
+      </c>
+      <c r="D269">
+        <v>112.89</v>
+      </c>
+      <c r="E269">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>5</v>
+      </c>
+      <c r="B270" t="s">
+        <v>280</v>
+      </c>
+      <c r="C270">
+        <v>75</v>
+      </c>
+      <c r="D270">
+        <v>51.31</v>
+      </c>
+      <c r="E270">
+        <v>83.49</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>7</v>
+      </c>
+      <c r="B271" t="s">
+        <v>281</v>
+      </c>
+      <c r="C271">
+        <v>57</v>
+      </c>
+      <c r="D271">
+        <v>39.65</v>
+      </c>
+      <c r="E271">
+        <v>83.66</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>9</v>
+      </c>
+      <c r="B272" t="s">
+        <v>282</v>
+      </c>
+      <c r="C272">
+        <v>236</v>
+      </c>
+      <c r="D272">
+        <v>109.25</v>
+      </c>
+      <c r="E272">
+        <v>83.82</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>11</v>
+      </c>
+      <c r="B273" t="s">
+        <v>283</v>
+      </c>
+      <c r="C273">
+        <v>284</v>
+      </c>
+      <c r="D273">
+        <v>113.29</v>
+      </c>
+      <c r="E273">
+        <v>83.98</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>13</v>
+      </c>
+      <c r="B274" t="s">
+        <v>284</v>
+      </c>
+      <c r="C274">
+        <v>253</v>
+      </c>
+      <c r="D274">
+        <v>117.61</v>
+      </c>
+      <c r="E274">
+        <v>84.14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>15</v>
+      </c>
+      <c r="B275" t="s">
+        <v>285</v>
+      </c>
+      <c r="C275">
+        <v>216</v>
+      </c>
+      <c r="D275">
+        <v>115.12</v>
+      </c>
+      <c r="E275">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>17</v>
+      </c>
+      <c r="B276" t="s">
+        <v>286</v>
+      </c>
+      <c r="C276">
+        <v>297</v>
+      </c>
+      <c r="D276">
+        <v>116.3</v>
+      </c>
+      <c r="E276">
+        <v>84.46</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>5</v>
+      </c>
+      <c r="B277" t="s">
+        <v>287</v>
+      </c>
+      <c r="C277">
+        <v>109</v>
+      </c>
+      <c r="D277">
+        <v>52.36</v>
+      </c>
+      <c r="E277">
+        <v>84.62</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>7</v>
+      </c>
+      <c r="B278" t="s">
+        <v>288</v>
+      </c>
+      <c r="C278">
+        <v>66</v>
+      </c>
+      <c r="D278">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="E278">
+        <v>84.79</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>11</v>
+      </c>
+      <c r="B279" t="s">
+        <v>289</v>
+      </c>
+      <c r="C279">
+        <v>238</v>
+      </c>
+      <c r="D279">
+        <v>115.41</v>
+      </c>
+      <c r="E279">
+        <v>85.11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>13</v>
+      </c>
+      <c r="B280" t="s">
+        <v>290</v>
+      </c>
+      <c r="C280">
+        <v>233</v>
+      </c>
+      <c r="D280">
+        <v>119.6</v>
+      </c>
+      <c r="E280">
+        <v>85.27</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>15</v>
+      </c>
+      <c r="B281" t="s">
+        <v>291</v>
+      </c>
+      <c r="C281">
+        <v>253</v>
+      </c>
+      <c r="D281">
+        <v>117.5</v>
+      </c>
+      <c r="E281">
+        <v>85.43</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>17</v>
+      </c>
+      <c r="B282" t="s">
+        <v>292</v>
+      </c>
+      <c r="C282">
+        <v>236</v>
+      </c>
+      <c r="D282">
+        <v>118.47</v>
+      </c>
+      <c r="E282">
+        <v>85.59</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>5</v>
+      </c>
+      <c r="B283" t="s">
+        <v>293</v>
+      </c>
+      <c r="C283">
+        <v>76</v>
+      </c>
+      <c r="D283">
+        <v>52.79</v>
+      </c>
+      <c r="E283">
+        <v>85.76</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>7</v>
+      </c>
+      <c r="B284" t="s">
+        <v>294</v>
+      </c>
+      <c r="C284">
+        <v>63</v>
+      </c>
+      <c r="D284">
+        <v>40.53</v>
+      </c>
+      <c r="E284">
+        <v>85.92</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>9</v>
+      </c>
+      <c r="B285" t="s">
+        <v>295</v>
+      </c>
+      <c r="C285">
+        <v>208</v>
+      </c>
+      <c r="D285">
+        <v>111.15</v>
+      </c>
+      <c r="E285">
+        <v>86.08</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>11</v>
+      </c>
+      <c r="B286" t="s">
+        <v>296</v>
+      </c>
+      <c r="C286">
+        <v>270</v>
+      </c>
+      <c r="D286">
+        <v>117.98</v>
+      </c>
+      <c r="E286">
+        <v>86.24</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>13</v>
+      </c>
+      <c r="B287" t="s">
+        <v>297</v>
+      </c>
+      <c r="C287">
+        <v>294</v>
+      </c>
+      <c r="D287">
+        <v>122.56</v>
+      </c>
+      <c r="E287">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>15</v>
+      </c>
+      <c r="B288" t="s">
+        <v>298</v>
+      </c>
+      <c r="C288">
+        <v>253</v>
+      </c>
+      <c r="D288">
+        <v>119.8</v>
+      </c>
+      <c r="E288">
+        <v>86.56</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>17</v>
+      </c>
+      <c r="B289" t="s">
+        <v>299</v>
+      </c>
+      <c r="C289">
+        <v>255</v>
+      </c>
+      <c r="D289">
+        <v>120.91</v>
+      </c>
+      <c r="E289">
+        <v>86.72</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>5</v>
+      </c>
+      <c r="B290" t="s">
+        <v>300</v>
+      </c>
+      <c r="C290">
+        <v>123</v>
+      </c>
+      <c r="D290">
+        <v>54.02</v>
+      </c>
+      <c r="E290">
+        <v>86.89</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>7</v>
+      </c>
+      <c r="B291" t="s">
+        <v>301</v>
+      </c>
+      <c r="C291">
+        <v>103</v>
+      </c>
+      <c r="D291">
+        <v>41.6</v>
+      </c>
+      <c r="E291">
+        <v>87.05</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>9</v>
+      </c>
+      <c r="B292" t="s">
+        <v>302</v>
+      </c>
+      <c r="C292">
+        <v>252</v>
+      </c>
+      <c r="D292">
+        <v>113.81</v>
+      </c>
+      <c r="E292">
+        <v>87.21</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>11</v>
+      </c>
+      <c r="B293" t="s">
+        <v>303</v>
+      </c>
+      <c r="C293">
+        <v>239</v>
+      </c>
+      <c r="D293">
+        <v>119.97</v>
+      </c>
+      <c r="E293">
+        <v>87.37</v>
       </c>
     </row>
   </sheetData>

--- a/rider/annual/2016.xlsx
+++ b/rider/annual/2016.xlsx
@@ -525,190 +525,190 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>279</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>296</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>254</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>240</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>264</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>290</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>254</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>233</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>241</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>206</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>213</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>171</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>126</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>98</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>261</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>279</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>256</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>263</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>153</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>128</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>224</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>227</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>274</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>257</c:v>
-                </c:pt>
                 <c:pt idx="52">
-                  <c:v>204</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>210</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>95</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>44</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>46</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>147</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>148</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>354</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>56</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -931,190 +931,190 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>279</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>296</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>254</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>240</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>264</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>248.5</c:v>
+                  <c:v>257.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>111.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>234.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>243.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>277.33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>255.33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>249.33</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>253.67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>116.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>218.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>113.67</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75.67</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>224.67</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>253.33</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>243.33</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>82.5</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>266.5</c:v>
+                  <c:v>266.25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>220</c:v>
+                  <c:v>222.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>243.25</c:v>
+                  <c:v>241.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>225.25</c:v>
+                  <c:v>233.25</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>118</c:v>
+                  <c:v>119.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>85.59999999999999</c:v>
+                  <c:v>80.8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>265.4</c:v>
+                  <c:v>262.2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>231.8</c:v>
+                  <c:v>233.4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>198.6</c:v>
+                  <c:v>197.2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>250</c:v>
+                  <c:v>248.75</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>232.8</c:v>
+                  <c:v>237.2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>123.83</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>92.67</c:v>
+                  <c:v>89.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>258.5</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>231</c:v>
+                  <c:v>230.83</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>206.83</c:v>
+                  <c:v>198.33</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>227.2</c:v>
+                  <c:v>226.4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>207.5</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>126.57</c:v>
+                  <c:v>125.57</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>102.14</c:v>
+                  <c:v>99.86</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>261.86</c:v>
+                  <c:v>267.57</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>224</c:v>
+                  <c:v>228.86</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>207.57</c:v>
+                  <c:v>197.14</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>235</c:v>
+                  <c:v>228.83</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>220.57</c:v>
+                  <c:v>228.29</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>132.38</c:v>
+                  <c:v>132.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>107.75</c:v>
+                  <c:v>105.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>262.62</c:v>
+                  <c:v>269.62</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>228.12</c:v>
+                  <c:v>228.62</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>207.12</c:v>
+                  <c:v>197.75</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>231.43</c:v>
+                  <c:v>224.86</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>204.88</c:v>
+                  <c:v>211.25</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>122.56</c:v>
+                  <c:v>122.44</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>238.56</c:v>
+                  <c:v>244.67</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>213.78</c:v>
+                  <c:v>214.22</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>200.44</c:v>
+                  <c:v>191.78</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>221</c:v>
+                  <c:v>214.12</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>221.44</c:v>
+                  <c:v>227.44</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>115.9</c:v>
+                  <c:v>116.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1965,10 +1965,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E2">
         <v>87.84999999999999</v>
@@ -1982,10 +1982,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3">
         <v>88.02</v>
@@ -2016,10 +2016,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="D5">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="E5">
         <v>88.34</v>
@@ -2033,10 +2033,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D6">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E6">
         <v>88.5</v>
@@ -2050,10 +2050,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D7">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="E7">
         <v>88.66</v>
@@ -2067,10 +2067,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E8">
         <v>88.81999999999999</v>
@@ -2084,10 +2084,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="D9">
-        <v>248.5</v>
+        <v>257.5</v>
       </c>
       <c r="E9">
         <v>88.98</v>
@@ -2101,7 +2101,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D10">
         <v>111.5</v>
@@ -2118,10 +2118,10 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11">
         <v>89.31</v>
@@ -2135,10 +2135,10 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="D12">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E12">
         <v>89.47</v>
@@ -2152,10 +2152,10 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="D13">
-        <v>218.5</v>
+        <v>234.5</v>
       </c>
       <c r="E13">
         <v>89.63</v>
@@ -2169,10 +2169,10 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D14">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="E14">
         <v>89.79000000000001</v>
@@ -2186,10 +2186,10 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D15">
-        <v>245</v>
+        <v>243.5</v>
       </c>
       <c r="E15">
         <v>89.95</v>
@@ -2203,10 +2203,10 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D16">
-        <v>113.67</v>
+        <v>113</v>
       </c>
       <c r="E16">
         <v>90.28</v>
@@ -2220,10 +2220,10 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D17">
-        <v>75.67</v>
+        <v>74</v>
       </c>
       <c r="E17">
         <v>90.44</v>
@@ -2237,10 +2237,10 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="D18">
-        <v>275</v>
+        <v>277.33</v>
       </c>
       <c r="E18">
         <v>90.59999999999999</v>
@@ -2254,10 +2254,10 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D19">
-        <v>224.67</v>
+        <v>227</v>
       </c>
       <c r="E19">
         <v>90.76000000000001</v>
@@ -2271,10 +2271,10 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="D20">
-        <v>253.33</v>
+        <v>255.33</v>
       </c>
       <c r="E20">
         <v>90.92</v>
@@ -2288,10 +2288,10 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D21">
-        <v>248</v>
+        <v>249.33</v>
       </c>
       <c r="E21">
         <v>91.08</v>
@@ -2305,10 +2305,10 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="D22">
-        <v>243.33</v>
+        <v>253.67</v>
       </c>
       <c r="E22">
         <v>91.23999999999999</v>
@@ -2322,10 +2322,10 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D23">
-        <v>116</v>
+        <v>116.5</v>
       </c>
       <c r="E23">
         <v>91.41</v>
@@ -2339,10 +2339,10 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D24">
-        <v>82.5</v>
+        <v>77</v>
       </c>
       <c r="E24">
         <v>91.56999999999999</v>
@@ -2356,10 +2356,10 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D25">
-        <v>266.5</v>
+        <v>266.25</v>
       </c>
       <c r="E25">
         <v>91.73</v>
@@ -2373,10 +2373,10 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D26">
-        <v>220</v>
+        <v>222.5</v>
       </c>
       <c r="E26">
         <v>91.89</v>
@@ -2390,10 +2390,10 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D27">
-        <v>243.25</v>
+        <v>241.5</v>
       </c>
       <c r="E27">
         <v>92.05</v>
@@ -2407,10 +2407,10 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D28">
-        <v>225.25</v>
+        <v>233.25</v>
       </c>
       <c r="E28">
         <v>92.37</v>
@@ -2424,10 +2424,10 @@
         <v>39</v>
       </c>
       <c r="C29">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D29">
-        <v>118</v>
+        <v>119.4</v>
       </c>
       <c r="E29">
         <v>92.54000000000001</v>
@@ -2441,10 +2441,10 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30">
-        <v>85.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="E30">
         <v>92.7</v>
@@ -2458,10 +2458,10 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D31">
-        <v>265.4</v>
+        <v>262.2</v>
       </c>
       <c r="E31">
         <v>92.86</v>
@@ -2475,10 +2475,10 @@
         <v>42</v>
       </c>
       <c r="C32">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D32">
-        <v>231.8</v>
+        <v>233.4</v>
       </c>
       <c r="E32">
         <v>93.02</v>
@@ -2495,7 +2495,7 @@
         <v>20</v>
       </c>
       <c r="D33">
-        <v>198.6</v>
+        <v>197.2</v>
       </c>
       <c r="E33">
         <v>93.18000000000001</v>
@@ -2509,10 +2509,10 @@
         <v>44</v>
       </c>
       <c r="C34">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D34">
-        <v>250</v>
+        <v>248.75</v>
       </c>
       <c r="E34">
         <v>93.34</v>
@@ -2526,10 +2526,10 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D35">
-        <v>232.8</v>
+        <v>237.2</v>
       </c>
       <c r="E35">
         <v>93.5</v>
@@ -2543,10 +2543,10 @@
         <v>46</v>
       </c>
       <c r="C36">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D36">
-        <v>123.83</v>
+        <v>123</v>
       </c>
       <c r="E36">
         <v>93.67</v>
@@ -2560,10 +2560,10 @@
         <v>47</v>
       </c>
       <c r="C37">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D37">
-        <v>92.67</v>
+        <v>89.5</v>
       </c>
       <c r="E37">
         <v>93.83</v>
@@ -2577,10 +2577,10 @@
         <v>48</v>
       </c>
       <c r="C38">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="D38">
-        <v>258.5</v>
+        <v>264</v>
       </c>
       <c r="E38">
         <v>93.98999999999999</v>
@@ -2594,10 +2594,10 @@
         <v>49</v>
       </c>
       <c r="C39">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D39">
-        <v>231</v>
+        <v>230.83</v>
       </c>
       <c r="E39">
         <v>94.15000000000001</v>
@@ -2611,10 +2611,10 @@
         <v>50</v>
       </c>
       <c r="C40">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="D40">
-        <v>206.83</v>
+        <v>198.33</v>
       </c>
       <c r="E40">
         <v>94.31</v>
@@ -2628,10 +2628,10 @@
         <v>51</v>
       </c>
       <c r="C41">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D41">
-        <v>227.2</v>
+        <v>226.4</v>
       </c>
       <c r="E41">
         <v>94.47</v>
@@ -2645,10 +2645,10 @@
         <v>52</v>
       </c>
       <c r="C42">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42">
-        <v>207.5</v>
+        <v>211</v>
       </c>
       <c r="E42">
         <v>94.63</v>
@@ -2662,10 +2662,10 @@
         <v>53</v>
       </c>
       <c r="C43">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D43">
-        <v>126.57</v>
+        <v>125.57</v>
       </c>
       <c r="E43">
         <v>94.8</v>
@@ -2679,10 +2679,10 @@
         <v>54</v>
       </c>
       <c r="C44">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D44">
-        <v>102.14</v>
+        <v>99.86</v>
       </c>
       <c r="E44">
         <v>94.95999999999999</v>
@@ -2696,10 +2696,10 @@
         <v>55</v>
       </c>
       <c r="C45">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D45">
-        <v>261.86</v>
+        <v>267.57</v>
       </c>
       <c r="E45">
         <v>95.12</v>
@@ -2713,10 +2713,10 @@
         <v>56</v>
       </c>
       <c r="C46">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="D46">
-        <v>224</v>
+        <v>228.86</v>
       </c>
       <c r="E46">
         <v>95.28</v>
@@ -2730,10 +2730,10 @@
         <v>57</v>
       </c>
       <c r="C47">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="D47">
-        <v>207.57</v>
+        <v>197.14</v>
       </c>
       <c r="E47">
         <v>95.44</v>
@@ -2747,10 +2747,10 @@
         <v>58</v>
       </c>
       <c r="C48">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="D48">
-        <v>235</v>
+        <v>228.83</v>
       </c>
       <c r="E48">
         <v>95.59999999999999</v>
@@ -2764,10 +2764,10 @@
         <v>59</v>
       </c>
       <c r="C49">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="D49">
-        <v>220.57</v>
+        <v>228.29</v>
       </c>
       <c r="E49">
         <v>95.76000000000001</v>
@@ -2781,10 +2781,10 @@
         <v>60</v>
       </c>
       <c r="C50">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D50">
-        <v>132.38</v>
+        <v>132.5</v>
       </c>
       <c r="E50">
         <v>95.93000000000001</v>
@@ -2798,10 +2798,10 @@
         <v>61</v>
       </c>
       <c r="C51">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D51">
-        <v>107.75</v>
+        <v>105.5</v>
       </c>
       <c r="E51">
         <v>96.09</v>
@@ -2815,10 +2815,10 @@
         <v>62</v>
       </c>
       <c r="C52">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="D52">
-        <v>262.62</v>
+        <v>269.62</v>
       </c>
       <c r="E52">
         <v>96.25</v>
@@ -2832,10 +2832,10 @@
         <v>63</v>
       </c>
       <c r="C53">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="D53">
-        <v>228.12</v>
+        <v>228.62</v>
       </c>
       <c r="E53">
         <v>96.41</v>
@@ -2849,10 +2849,10 @@
         <v>64</v>
       </c>
       <c r="C54">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D54">
-        <v>207.12</v>
+        <v>197.75</v>
       </c>
       <c r="E54">
         <v>96.56999999999999</v>
@@ -2866,10 +2866,10 @@
         <v>65</v>
       </c>
       <c r="C55">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D55">
-        <v>231.43</v>
+        <v>224.86</v>
       </c>
       <c r="E55">
         <v>96.73</v>
@@ -2883,10 +2883,10 @@
         <v>66</v>
       </c>
       <c r="C56">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D56">
-        <v>204.88</v>
+        <v>211.25</v>
       </c>
       <c r="E56">
         <v>96.89</v>
@@ -2900,10 +2900,10 @@
         <v>67</v>
       </c>
       <c r="C57">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D57">
-        <v>122.56</v>
+        <v>122.44</v>
       </c>
       <c r="E57">
         <v>97.06</v>
@@ -2917,10 +2917,10 @@
         <v>68</v>
       </c>
       <c r="C58">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D58">
-        <v>238.56</v>
+        <v>244.67</v>
       </c>
       <c r="E58">
         <v>97.38</v>
@@ -2937,7 +2937,7 @@
         <v>99</v>
       </c>
       <c r="D59">
-        <v>213.78</v>
+        <v>214.22</v>
       </c>
       <c r="E59">
         <v>97.54000000000001</v>
@@ -2951,10 +2951,10 @@
         <v>70</v>
       </c>
       <c r="C60">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D60">
-        <v>200.44</v>
+        <v>191.78</v>
       </c>
       <c r="E60">
         <v>97.7</v>
@@ -2968,10 +2968,10 @@
         <v>71</v>
       </c>
       <c r="C61">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D61">
-        <v>221</v>
+        <v>214.12</v>
       </c>
       <c r="E61">
         <v>97.86</v>
@@ -2985,10 +2985,10 @@
         <v>72</v>
       </c>
       <c r="C62">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D62">
-        <v>221.44</v>
+        <v>227.44</v>
       </c>
       <c r="E62">
         <v>98.03</v>
@@ -3002,10 +3002,10 @@
         <v>73</v>
       </c>
       <c r="C63">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D63">
-        <v>115.9</v>
+        <v>116.5</v>
       </c>
       <c r="E63">
         <v>98.19</v>
